--- a/code/excels/building/building_round_board.xlsx
+++ b/code/excels/building/building_round_board.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="195">
   <si>
     <t>回合编号</t>
   </si>
@@ -227,21 +227,39 @@
     <t>n1</t>
   </si>
   <si>
+    <t>basic10001</t>
+  </si>
+  <si>
     <t>wave_1</t>
   </si>
   <si>
+    <t>basic10002</t>
+  </si>
+  <si>
     <t>wave_2</t>
   </si>
   <si>
+    <t>basic10003</t>
+  </si>
+  <si>
     <t>wave_3</t>
   </si>
   <si>
+    <t>basic10004</t>
+  </si>
+  <si>
     <t>wave_4</t>
   </si>
   <si>
+    <t>basic10005</t>
+  </si>
+  <si>
     <t>wave_5</t>
   </si>
   <si>
+    <t>basic10006</t>
+  </si>
+  <si>
     <t>wave_gold</t>
   </si>
   <si>
@@ -251,96 +269,186 @@
     <t>n1_3</t>
   </si>
   <si>
+    <t>basic10007</t>
+  </si>
+  <si>
     <t>wave_6</t>
   </si>
   <si>
+    <t>basic10008</t>
+  </si>
+  <si>
     <t>wave_7</t>
   </si>
   <si>
+    <t>basic10009</t>
+  </si>
+  <si>
     <t>wave_8</t>
   </si>
   <si>
+    <t>basic10010</t>
+  </si>
+  <si>
     <t>wave_9</t>
   </si>
   <si>
+    <t>basic10011</t>
+  </si>
+  <si>
     <t>wave_10</t>
   </si>
   <si>
+    <t>basic10012</t>
+  </si>
+  <si>
     <t>wave_goldx3</t>
   </si>
   <si>
     <t>n1_4</t>
   </si>
   <si>
+    <t>basic10013</t>
+  </si>
+  <si>
     <t>wave_11</t>
   </si>
   <si>
+    <t>basic10014</t>
+  </si>
+  <si>
     <t>wave_12</t>
   </si>
   <si>
+    <t>basic10015</t>
+  </si>
+  <si>
     <t>wave_13</t>
   </si>
   <si>
+    <t>basic10016</t>
+  </si>
+  <si>
     <t>wave_14</t>
   </si>
   <si>
+    <t>basic10017</t>
+  </si>
+  <si>
     <t>wave_15</t>
   </si>
   <si>
+    <t>basic10018</t>
+  </si>
+  <si>
     <t>n1_5</t>
   </si>
   <si>
+    <t>basic10019</t>
+  </si>
+  <si>
     <t>wave_16</t>
   </si>
   <si>
+    <t>basic10020</t>
+  </si>
+  <si>
     <t>wave_17</t>
   </si>
   <si>
+    <t>basic10021</t>
+  </si>
+  <si>
     <t>wave_18</t>
   </si>
   <si>
+    <t>basic10022</t>
+  </si>
+  <si>
     <t>wave_19</t>
   </si>
   <si>
+    <t>basic10023</t>
+  </si>
+  <si>
     <t>wave_20</t>
   </si>
   <si>
+    <t>basic10024</t>
+  </si>
+  <si>
     <t>n1_6</t>
   </si>
   <si>
+    <t>basic10025</t>
+  </si>
+  <si>
     <t>wave_21</t>
   </si>
   <si>
+    <t>basic10026</t>
+  </si>
+  <si>
     <t>wave_22</t>
   </si>
   <si>
+    <t>basic10027</t>
+  </si>
+  <si>
     <t>wave_23</t>
   </si>
   <si>
+    <t>basic10028</t>
+  </si>
+  <si>
     <t>wave_24</t>
   </si>
   <si>
+    <t>basic10029</t>
+  </si>
+  <si>
     <t>wave_25</t>
   </si>
   <si>
+    <t>basic10030</t>
+  </si>
+  <si>
     <t>n1_7</t>
   </si>
   <si>
+    <t>basic10031</t>
+  </si>
+  <si>
     <t>wave_26</t>
   </si>
   <si>
+    <t>basic10032</t>
+  </si>
+  <si>
     <t>wave_27</t>
   </si>
   <si>
+    <t>basic10033</t>
+  </si>
+  <si>
     <t>wave_28</t>
   </si>
   <si>
+    <t>basic10034</t>
+  </si>
+  <si>
     <t>wave_29</t>
   </si>
   <si>
+    <t>basic10035</t>
+  </si>
+  <si>
     <t>wave_30</t>
   </si>
   <si>
+    <t>basic10036</t>
+  </si>
+  <si>
     <t>wave_phantom_roshan</t>
   </si>
   <si>
@@ -350,55 +458,112 @@
     <t>n1_8</t>
   </si>
   <si>
+    <t>basic10037</t>
+  </si>
+  <si>
     <t>wave_31</t>
   </si>
   <si>
+    <t>basic10038</t>
+  </si>
+  <si>
     <t>wave_32</t>
   </si>
   <si>
+    <t>basic10039</t>
+  </si>
+  <si>
     <t>wave_33</t>
   </si>
   <si>
+    <t>basic10040</t>
+  </si>
+  <si>
     <t>wave_34</t>
   </si>
   <si>
+    <t>basic10041</t>
+  </si>
+  <si>
     <t>wave_35</t>
   </si>
   <si>
+    <t>basic10042</t>
+  </si>
+  <si>
     <t>n1_9</t>
   </si>
   <si>
+    <t>basic10043</t>
+  </si>
+  <si>
     <t>wave_36</t>
   </si>
   <si>
+    <t>basic10044</t>
+  </si>
+  <si>
     <t>wave_37</t>
   </si>
   <si>
+    <t>basic10045</t>
+  </si>
+  <si>
     <t>wave_38</t>
   </si>
   <si>
+    <t>basic10046</t>
+  </si>
+  <si>
     <t>wave_43</t>
   </si>
   <si>
+    <t>basic10047</t>
+  </si>
+  <si>
     <t>wave_44</t>
   </si>
   <si>
+    <t>basic10048</t>
+  </si>
+  <si>
+    <t>basic10049</t>
+  </si>
+  <si>
     <t>wave_41</t>
   </si>
   <si>
+    <t>basic10050</t>
+  </si>
+  <si>
     <t>wave_42</t>
   </si>
   <si>
+    <t>basic10051</t>
+  </si>
+  <si>
     <t>wave_39</t>
   </si>
   <si>
+    <t>basic10052</t>
+  </si>
+  <si>
     <t>wave_40</t>
   </si>
   <si>
+    <t>basic10053</t>
+  </si>
+  <si>
+    <t>basic10054</t>
+  </si>
+  <si>
     <t>wave_55</t>
   </si>
   <si>
     <t>BOSS</t>
+  </si>
+  <si>
+    <t>basic10055</t>
   </si>
   <si>
     <t>candy_boss</t>
@@ -443,8 +608,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -471,20 +636,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -492,47 +649,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,43 +659,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -593,7 +675,44 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,9 +725,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,13 +794,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,25 +872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,73 +884,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,13 +908,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,25 +968,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,41 +985,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -882,17 +1012,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,11 +1036,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,10 +1091,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -938,133 +1103,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1416,8 +1581,8 @@
   <sheetPr/>
   <dimension ref="A1:AH57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1677,11 +1842,11 @@
       <c r="G3" s="4">
         <v>50</v>
       </c>
-      <c r="H3" s="4">
-        <v>10001</v>
+      <c r="H3" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4">
@@ -1747,11 +1912,11 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4">
-        <v>10002</v>
+      <c r="H4" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4">
@@ -1817,11 +1982,11 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4">
-        <v>10003</v>
+      <c r="H5" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4">
@@ -1887,11 +2052,11 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4">
-        <v>10004</v>
+      <c r="H6" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4">
@@ -1957,11 +2122,11 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4">
-        <v>10005</v>
+      <c r="H7" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4">
@@ -2027,14 +2192,14 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="4">
-        <v>10006</v>
+      <c r="H8" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K8" s="9">
         <v>3</v>
@@ -2107,7 +2272,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>68</v>
@@ -2121,11 +2286,11 @@
       <c r="G9" s="4">
         <v>40</v>
       </c>
-      <c r="H9" s="4">
-        <v>10007</v>
+      <c r="H9" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4">
@@ -2191,11 +2356,11 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4">
-        <v>10008</v>
+      <c r="H10" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4">
@@ -2261,11 +2426,11 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4">
-        <v>10009</v>
+      <c r="H11" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4">
@@ -2331,11 +2496,11 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4">
-        <v>10010</v>
+      <c r="H12" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4">
@@ -2401,11 +2566,11 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4">
-        <v>10011</v>
+      <c r="H13" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4">
@@ -2471,14 +2636,14 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="4">
-        <v>10012</v>
+      <c r="H14" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K14" s="9">
         <v>3</v>
@@ -2545,13 +2710,13 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B15" s="4">
         <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>68</v>
@@ -2565,11 +2730,11 @@
       <c r="G15" s="4">
         <v>40</v>
       </c>
-      <c r="H15" s="4">
-        <v>10013</v>
+      <c r="H15" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4">
@@ -2635,11 +2800,11 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4">
-        <v>10014</v>
+      <c r="H16" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4">
@@ -2705,11 +2870,11 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4">
-        <v>10015</v>
+      <c r="H17" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4">
@@ -2775,11 +2940,11 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4">
-        <v>10016</v>
+      <c r="H18" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4">
@@ -2845,11 +3010,11 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4">
-        <v>10017</v>
+      <c r="H19" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4">
@@ -2915,14 +3080,14 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="4">
-        <v>10018</v>
+      <c r="H20" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K20" s="9">
         <v>3</v>
@@ -2991,13 +3156,13 @@
     </row>
     <row r="21" spans="1:34">
       <c r="A21" s="4" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B21" s="4">
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>68</v>
@@ -3011,11 +3176,11 @@
       <c r="G21" s="4">
         <v>45</v>
       </c>
-      <c r="H21" s="4">
-        <v>10019</v>
+      <c r="H21" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4">
@@ -3081,11 +3246,11 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4">
-        <v>10020</v>
+      <c r="H22" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4">
@@ -3151,11 +3316,11 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4">
-        <v>10021</v>
+      <c r="H23" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4">
@@ -3221,11 +3386,11 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4">
-        <v>10022</v>
+      <c r="H24" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4">
@@ -3291,11 +3456,11 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4">
-        <v>10023</v>
+      <c r="H25" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4">
@@ -3361,14 +3526,14 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="4">
-        <v>10024</v>
+      <c r="H26" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K26" s="9">
         <v>3</v>
@@ -3437,13 +3602,13 @@
     </row>
     <row r="27" spans="1:34">
       <c r="A27" s="4" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B27" s="4">
         <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>68</v>
@@ -3457,11 +3622,11 @@
       <c r="G27" s="4">
         <v>45</v>
       </c>
-      <c r="H27" s="4">
-        <v>10025</v>
+      <c r="H27" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4">
@@ -3527,11 +3692,11 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="4">
-        <v>10026</v>
+      <c r="H28" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4">
@@ -3597,11 +3762,11 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="4">
-        <v>10027</v>
+      <c r="H29" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4">
@@ -3667,11 +3832,11 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="4">
-        <v>10028</v>
+      <c r="H30" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4">
@@ -3737,11 +3902,11 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="4">
-        <v>10029</v>
+      <c r="H31" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4">
@@ -3807,14 +3972,14 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="4">
-        <v>10030</v>
+      <c r="H32" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K32" s="9">
         <v>3</v>
@@ -3883,13 +4048,13 @@
     </row>
     <row r="33" spans="1:34">
       <c r="A33" s="4" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B33" s="4">
         <v>6</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>68</v>
@@ -3903,11 +4068,11 @@
       <c r="G33" s="4">
         <v>50</v>
       </c>
-      <c r="H33" s="4">
-        <v>10031</v>
+      <c r="H33" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4">
@@ -3973,11 +4138,11 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="4">
-        <v>10032</v>
+      <c r="H34" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4">
@@ -4043,11 +4208,11 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4">
-        <v>10033</v>
+      <c r="H35" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4">
@@ -4113,11 +4278,11 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4">
-        <v>10034</v>
+      <c r="H36" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4">
@@ -4183,11 +4348,11 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4">
-        <v>10035</v>
+      <c r="H37" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4">
@@ -4253,14 +4418,14 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="4">
-        <v>10036</v>
+      <c r="H38" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="K38" s="9">
         <v>3</v>
@@ -4317,13 +4482,13 @@
     </row>
     <row r="39" spans="1:34">
       <c r="A39" s="4" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="B39" s="4">
         <v>7</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>68</v>
@@ -4337,11 +4502,11 @@
       <c r="G39" s="4">
         <v>20</v>
       </c>
-      <c r="H39" s="4">
-        <v>10037</v>
+      <c r="H39" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4">
@@ -4407,11 +4572,11 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="4">
-        <v>10038</v>
+      <c r="H40" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4">
@@ -4477,11 +4642,11 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="4">
-        <v>10039</v>
+      <c r="H41" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4">
@@ -4547,11 +4712,11 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="4">
-        <v>10040</v>
+      <c r="H42" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4">
@@ -4617,11 +4782,11 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="4">
-        <v>10041</v>
+      <c r="H43" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4">
@@ -4687,14 +4852,14 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="4">
-        <v>10042</v>
+      <c r="H44" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K44" s="9">
         <v>3</v>
@@ -4763,13 +4928,13 @@
     </row>
     <row r="45" spans="1:34">
       <c r="A45" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="B45" s="4">
         <v>8</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>68</v>
@@ -4783,11 +4948,11 @@
       <c r="G45" s="4">
         <v>45</v>
       </c>
-      <c r="H45" s="4">
-        <v>10043</v>
+      <c r="H45" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4">
@@ -4853,11 +5018,11 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="4">
-        <v>10044</v>
+      <c r="H46" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4">
@@ -4923,11 +5088,11 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="4">
-        <v>10045</v>
+      <c r="H47" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4">
@@ -4993,11 +5158,11 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="4">
-        <v>10046</v>
+      <c r="H48" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4">
@@ -5063,11 +5228,11 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="4">
-        <v>10047</v>
+      <c r="H49" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4">
@@ -5133,14 +5298,14 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="4">
-        <v>10048</v>
+      <c r="H50" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K50" s="9">
         <v>3</v>
@@ -5209,7 +5374,7 @@
     </row>
     <row r="51" spans="1:34">
       <c r="A51" s="4" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="B51" s="4">
         <v>9</v>
@@ -5227,11 +5392,11 @@
       <c r="G51" s="4">
         <v>45</v>
       </c>
-      <c r="H51" s="4">
-        <v>10049</v>
+      <c r="H51" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4">
@@ -5297,11 +5462,11 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="4">
-        <v>10050</v>
+      <c r="H52" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4">
@@ -5367,11 +5532,11 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="4">
-        <v>10051</v>
+      <c r="H53" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4">
@@ -5437,11 +5602,11 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="4">
-        <v>10052</v>
+      <c r="H54" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4">
@@ -5507,14 +5672,14 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="4">
-        <v>10053</v>
+      <c r="H55" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K55" s="4">
         <v>5</v>
@@ -5589,14 +5754,14 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="4">
-        <v>10054</v>
+      <c r="H56" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="K56" s="9">
         <v>3</v>
@@ -5661,14 +5826,14 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="4">
-        <v>10055</v>
+      <c r="H57" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="K57" s="9">
         <v>4</v>
@@ -5736,8 +5901,8 @@
   <sheetPr/>
   <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="3"/>
@@ -5755,10 +5920,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28" spans="1:35">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -5860,10 +6025,10 @@
     </row>
     <row r="2" ht="28" spans="1:35">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>34</v>
@@ -5887,7 +6052,7 @@
         <v>40</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>41</v>
@@ -5967,120 +6132,120 @@
     </row>
     <row r="3" ht="15.5" spans="1:35">
       <c r="A3" s="5" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="K3" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:35">
       <c r="A4" s="5" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>34</v>
@@ -6104,7 +6269,7 @@
         <v>34</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>41</v>

--- a/code/excels/building/building_round_board.xlsx
+++ b/code/excels/building/building_round_board.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="199">
   <si>
     <t>回合编号</t>
   </si>
@@ -32,6 +32,12 @@
     <t>回合标签</t>
   </si>
   <si>
+    <t>奖励金币</t>
+  </si>
+  <si>
+    <t>奖励木材</t>
+  </si>
+  <si>
     <t>回合准备时间</t>
   </si>
   <si>
@@ -132,6 +138,12 @@
   </si>
   <si>
     <t>round_label</t>
+  </si>
+  <si>
+    <t>roundprize_gold</t>
+  </si>
+  <si>
+    <t>roundprize_wood</t>
   </si>
   <si>
     <t>round_readytime</t>
@@ -607,10 +619,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -635,6 +647,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -649,19 +692,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -675,36 +709,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,14 +724,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,24 +761,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,6 +779,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,13 +806,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,37 +830,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,7 +854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,31 +872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,13 +884,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,19 +908,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,7 +926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,6 +945,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,11 +1024,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,17 +1069,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,10 +1103,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1103,133 +1115,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1579,10 +1591,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH57"/>
+  <dimension ref="A1:AJ57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1592,31 +1604,33 @@
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="10.5833333333333" customWidth="1"/>
     <col min="5" max="5" width="10.8333333333333" customWidth="1"/>
-    <col min="6" max="6" width="15.3333333333333" customWidth="1"/>
-    <col min="7" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="20.5833333333333" customWidth="1"/>
-    <col min="10" max="10" width="8.75" customWidth="1"/>
-    <col min="11" max="11" width="11.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="9.25" customWidth="1"/>
-    <col min="15" max="15" width="8.66666666666667" customWidth="1"/>
-    <col min="16" max="18" width="11.5833333333333" customWidth="1"/>
-    <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="22" width="12.75" customWidth="1"/>
-    <col min="23" max="23" width="20.1666666666667" customWidth="1"/>
-    <col min="24" max="24" width="20.5833333333333" customWidth="1"/>
-    <col min="25" max="25" width="14.5" customWidth="1"/>
-    <col min="26" max="26" width="16.8333333333333" customWidth="1"/>
-    <col min="27" max="27" width="12.0833333333333" customWidth="1"/>
-    <col min="28" max="28" width="18.0833333333333" customWidth="1"/>
-    <col min="29" max="29" width="21.9166666666667" customWidth="1"/>
-    <col min="30" max="30" width="15.8333333333333" customWidth="1"/>
-    <col min="31" max="33" width="11.1666666666667" customWidth="1"/>
-    <col min="34" max="34" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15.9166666666667" customWidth="1"/>
+    <col min="8" max="8" width="15.3333333333333" customWidth="1"/>
+    <col min="9" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="20.5833333333333" customWidth="1"/>
+    <col min="12" max="12" width="8.75" customWidth="1"/>
+    <col min="13" max="13" width="11.3333333333333" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="9.25" customWidth="1"/>
+    <col min="17" max="17" width="8.66666666666667" customWidth="1"/>
+    <col min="18" max="20" width="11.5833333333333" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="22" max="24" width="12.75" customWidth="1"/>
+    <col min="25" max="25" width="20.1666666666667" customWidth="1"/>
+    <col min="26" max="26" width="20.5833333333333" customWidth="1"/>
+    <col min="27" max="27" width="14.5" customWidth="1"/>
+    <col min="28" max="28" width="16.8333333333333" customWidth="1"/>
+    <col min="29" max="29" width="12.0833333333333" customWidth="1"/>
+    <col min="30" max="30" width="18.0833333333333" customWidth="1"/>
+    <col min="31" max="31" width="21.9166666666667" customWidth="1"/>
+    <col min="32" max="32" width="15.8333333333333" customWidth="1"/>
+    <col min="33" max="35" width="11.1666666666667" customWidth="1"/>
+    <col min="36" max="36" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:34">
+    <row r="1" s="7" customFormat="1" spans="1:36">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1647,10 +1661,10 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="6" t="s">
@@ -1668,10 +1682,10 @@
       <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="4" t="s">
@@ -1719,158 +1733,170 @@
       <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" s="8" customFormat="1" spans="1:34">
+    <row r="2" s="8" customFormat="1" spans="1:36">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="J2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="3"/>
       <c r="M2" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ2" s="3"/>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="4">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4">
         <v>50</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH2" s="3"/>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="4">
-        <v>30</v>
-      </c>
-      <c r="G3" s="4">
-        <v>50</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="J3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4">
         <v>9</v>
       </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
         <v>180</v>
       </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4">
-        <v>1</v>
-      </c>
-      <c r="R3" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4"/>
       <c r="S3" s="4">
         <v>1</v>
       </c>
@@ -1884,27 +1910,33 @@
         <v>1</v>
       </c>
       <c r="W3" s="4">
+        <v>1</v>
+      </c>
+      <c r="X3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="4">
         <v>15</v>
       </c>
-      <c r="X3" s="4">
+      <c r="Z3" s="4">
         <v>15</v>
       </c>
-      <c r="Y3" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
+      <c r="AA3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>1</v>
+      </c>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:36">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1912,35 +1944,31 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
         <v>2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="N4" s="4">
         <v>8</v>
       </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
         <v>180</v>
       </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4">
-        <v>1</v>
-      </c>
-      <c r="R4" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4"/>
       <c r="S4" s="4">
         <v>1</v>
       </c>
@@ -1954,27 +1982,33 @@
         <v>1</v>
       </c>
       <c r="W4" s="4">
+        <v>1</v>
+      </c>
+      <c r="X4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="4">
         <v>15</v>
       </c>
-      <c r="X4" s="4">
+      <c r="Z4" s="4">
         <v>22.5</v>
       </c>
-      <c r="Y4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="4">
+      <c r="AA4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="4">
         <v>2</v>
       </c>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:36">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1982,35 +2016,31 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
         <v>3</v>
       </c>
-      <c r="L5" s="4">
+      <c r="N5" s="4">
         <v>7</v>
       </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
         <v>180</v>
       </c>
-      <c r="O5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4">
-        <v>1</v>
-      </c>
-      <c r="R5" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4"/>
       <c r="S5" s="4">
         <v>1</v>
       </c>
@@ -2024,27 +2054,33 @@
         <v>1</v>
       </c>
       <c r="W5" s="4">
+        <v>1</v>
+      </c>
+      <c r="X5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="4">
         <v>15</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Z5" s="4">
         <v>22.5</v>
       </c>
-      <c r="Y5" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
+      <c r="AA5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>1</v>
+      </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:36">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2052,35 +2088,31 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
         <v>4</v>
       </c>
-      <c r="L6" s="4">
+      <c r="N6" s="4">
         <v>8</v>
       </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
         <v>180</v>
       </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4">
-        <v>1</v>
-      </c>
-      <c r="R6" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4"/>
       <c r="S6" s="4">
         <v>1</v>
       </c>
@@ -2094,27 +2126,33 @@
         <v>1</v>
       </c>
       <c r="W6" s="4">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4">
         <v>15</v>
       </c>
-      <c r="X6" s="4">
+      <c r="Z6" s="4">
         <v>22.5</v>
       </c>
-      <c r="Y6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="4">
+      <c r="AA6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="4">
         <v>2</v>
       </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:36">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2122,233 +2160,243 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4">
-        <v>5</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <v>5</v>
+      </c>
+      <c r="N7" s="4">
         <v>9</v>
       </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
         <v>180</v>
       </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4">
-        <v>1</v>
-      </c>
-      <c r="R7" s="4">
-        <v>5</v>
-      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4"/>
       <c r="S7" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T7" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U7" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V7" s="4">
         <v>1</v>
       </c>
       <c r="W7" s="4">
+        <v>1</v>
+      </c>
+      <c r="X7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="4">
         <v>195</v>
       </c>
-      <c r="X7" s="4">
+      <c r="Z7" s="4">
         <v>206.25</v>
       </c>
-      <c r="Y7" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="4">
+      <c r="AA7" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="4">
         <v>3</v>
       </c>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:36">
       <c r="A8" s="4"/>
       <c r="B8" s="9"/>
       <c r="C8" s="4"/>
       <c r="D8" s="9"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="9">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="9">
         <v>3</v>
       </c>
-      <c r="L8" s="9">
+      <c r="N8" s="9">
         <v>6</v>
       </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
         <v>180</v>
       </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9">
-        <v>1</v>
-      </c>
-      <c r="R8" s="9">
-        <v>5</v>
-      </c>
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9"/>
       <c r="S8" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T8" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U8" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V8" s="9">
         <v>1</v>
       </c>
       <c r="W8" s="9">
+        <v>1</v>
+      </c>
+      <c r="X8" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="9">
         <v>10</v>
       </c>
-      <c r="X8" s="9">
+      <c r="Z8" s="9">
         <v>10</v>
       </c>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
-      <c r="AB8" s="9">
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9">
         <v>30</v>
       </c>
-      <c r="AC8" s="9">
+      <c r="AE8" s="9">
         <v>50000</v>
       </c>
-      <c r="AD8" s="9">
-        <v>5</v>
-      </c>
-      <c r="AE8" s="9">
+      <c r="AF8" s="9">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="9">
         <v>1.2</v>
       </c>
-      <c r="AF8" s="9">
+      <c r="AH8" s="9">
         <v>100</v>
       </c>
-      <c r="AG8" s="9">
+      <c r="AI8" s="9">
         <v>1000</v>
       </c>
-      <c r="AH8" s="9"/>
+      <c r="AJ8" s="9"/>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:36">
       <c r="A9" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F9" s="4">
+        <v>1100</v>
+      </c>
+      <c r="G9" s="4">
+        <v>25</v>
+      </c>
+      <c r="H9" s="4">
         <v>30</v>
       </c>
-      <c r="G9" s="4">
+      <c r="I9" s="4">
         <v>40</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="J9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
         <v>9</v>
       </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
         <v>180</v>
       </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4">
-        <v>1</v>
-      </c>
-      <c r="R9" s="4">
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
         <v>2</v>
       </c>
-      <c r="S9" s="4">
+      <c r="U9" s="4">
         <v>2</v>
       </c>
-      <c r="T9" s="4">
-        <v>1</v>
-      </c>
-      <c r="U9" s="4">
-        <v>1</v>
-      </c>
       <c r="V9" s="4">
         <v>1</v>
       </c>
       <c r="W9" s="4">
+        <v>1</v>
+      </c>
+      <c r="X9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="4">
         <v>33.75</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Z9" s="4">
         <v>45</v>
       </c>
-      <c r="Y9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
+      <c r="AA9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>1</v>
+      </c>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
       <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:36">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2356,69 +2404,71 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
         <v>2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="N10" s="4">
         <v>8</v>
       </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
         <v>180</v>
       </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4">
-        <v>1</v>
-      </c>
-      <c r="R10" s="4">
+      <c r="Q10" s="8">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4">
+        <v>1</v>
+      </c>
+      <c r="T10" s="4">
         <v>3</v>
       </c>
-      <c r="S10" s="4">
+      <c r="U10" s="4">
         <v>3</v>
       </c>
-      <c r="T10" s="4">
-        <v>1</v>
-      </c>
-      <c r="U10" s="4">
-        <v>1</v>
-      </c>
       <c r="V10" s="4">
         <v>1</v>
       </c>
       <c r="W10" s="4">
+        <v>1</v>
+      </c>
+      <c r="X10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="4">
         <v>33.75</v>
       </c>
-      <c r="X10" s="4">
+      <c r="Z10" s="4">
         <v>45</v>
       </c>
-      <c r="Y10" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="4">
+      <c r="AA10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="4">
         <v>2</v>
       </c>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:36">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2426,69 +2476,71 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
         <v>3</v>
       </c>
-      <c r="L11" s="4">
+      <c r="N11" s="4">
         <v>7</v>
       </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
         <v>180</v>
       </c>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4">
-        <v>1</v>
-      </c>
-      <c r="R11" s="4">
-        <v>5</v>
-      </c>
+      <c r="Q11" s="8">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4"/>
       <c r="S11" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T11" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U11" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11" s="4">
         <v>1</v>
       </c>
       <c r="W11" s="4">
+        <v>1</v>
+      </c>
+      <c r="X11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="4">
         <v>37.5</v>
       </c>
-      <c r="X11" s="4">
+      <c r="Z11" s="4">
         <v>48.75</v>
       </c>
-      <c r="Y11" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="4">
+      <c r="AA11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="4">
         <v>4</v>
       </c>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:36">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2496,69 +2548,71 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
         <v>4</v>
       </c>
-      <c r="L12" s="4">
+      <c r="N12" s="4">
         <v>8</v>
       </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
         <v>180</v>
       </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4">
-        <v>1</v>
-      </c>
-      <c r="R12" s="4">
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
         <v>7</v>
       </c>
-      <c r="S12" s="4">
+      <c r="U12" s="4">
         <v>7</v>
       </c>
-      <c r="T12" s="4">
-        <v>1</v>
-      </c>
-      <c r="U12" s="4">
-        <v>1</v>
-      </c>
       <c r="V12" s="4">
         <v>1</v>
       </c>
       <c r="W12" s="4">
+        <v>1</v>
+      </c>
+      <c r="X12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="4">
         <v>67.5</v>
       </c>
-      <c r="X12" s="4">
+      <c r="Z12" s="4">
         <v>78.75</v>
       </c>
-      <c r="Y12" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
+      <c r="AA12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>5</v>
+      </c>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:36">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2566,233 +2620,243 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4">
-        <v>5</v>
-      </c>
-      <c r="L13" s="4">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4">
+        <v>5</v>
+      </c>
+      <c r="N13" s="4">
         <v>9</v>
       </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
         <v>180</v>
       </c>
-      <c r="O13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4">
-        <v>1</v>
-      </c>
-      <c r="R13" s="4">
+      <c r="Q13" s="8">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4">
+        <v>1</v>
+      </c>
+      <c r="T13" s="4">
         <v>9</v>
       </c>
-      <c r="S13" s="4">
+      <c r="U13" s="4">
         <v>9</v>
       </c>
-      <c r="T13" s="4">
-        <v>1</v>
-      </c>
-      <c r="U13" s="4">
-        <v>1</v>
-      </c>
       <c r="V13" s="4">
         <v>1</v>
       </c>
       <c r="W13" s="4">
+        <v>1</v>
+      </c>
+      <c r="X13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="4">
         <v>412.5</v>
       </c>
-      <c r="X13" s="4">
+      <c r="Z13" s="4">
         <v>453.75</v>
       </c>
-      <c r="Y13" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z13" s="4">
+      <c r="AA13" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="4">
         <v>3</v>
       </c>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:36">
       <c r="A14" s="4"/>
       <c r="B14" s="9"/>
       <c r="C14" s="4"/>
       <c r="D14" s="9"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="9">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="9">
         <v>3</v>
       </c>
-      <c r="L14" s="9">
+      <c r="N14" s="9">
         <v>6</v>
       </c>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
         <v>180</v>
       </c>
-      <c r="O14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9">
-        <v>1</v>
-      </c>
-      <c r="R14" s="9">
-        <v>5</v>
-      </c>
+      <c r="Q14" s="8">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9"/>
       <c r="S14" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T14" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U14" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V14" s="9">
         <v>1</v>
       </c>
       <c r="W14" s="9">
+        <v>1</v>
+      </c>
+      <c r="X14" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="9">
         <v>10</v>
       </c>
-      <c r="X14" s="9">
+      <c r="Z14" s="9">
         <v>10</v>
       </c>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
-      <c r="AB14" s="9">
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9">
         <v>25</v>
       </c>
-      <c r="AC14" s="9">
+      <c r="AE14" s="9">
         <v>500000</v>
       </c>
-      <c r="AD14" s="9">
+      <c r="AF14" s="9">
         <v>10</v>
       </c>
-      <c r="AE14" s="9">
+      <c r="AG14" s="9">
         <v>1.4</v>
       </c>
-      <c r="AF14" s="9">
+      <c r="AH14" s="9">
         <v>10000</v>
       </c>
-      <c r="AG14" s="9">
+      <c r="AI14" s="9">
         <v>1000000</v>
       </c>
-      <c r="AH14" s="9"/>
+      <c r="AJ14" s="9"/>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:36">
       <c r="A15" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B15" s="4">
         <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F15" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="4">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4">
         <v>30</v>
       </c>
-      <c r="G15" s="4">
+      <c r="I15" s="4">
         <v>40</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4">
+      <c r="J15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4">
         <v>9</v>
       </c>
-      <c r="M15" s="8">
-        <v>0</v>
-      </c>
-      <c r="N15" s="8">
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
         <v>180</v>
       </c>
-      <c r="O15" s="8">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4">
-        <v>1</v>
-      </c>
-      <c r="R15" s="4">
+      <c r="Q15" s="8">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4">
+        <v>1</v>
+      </c>
+      <c r="T15" s="4">
         <v>3</v>
       </c>
-      <c r="S15" s="4">
+      <c r="U15" s="4">
         <v>3</v>
       </c>
-      <c r="T15" s="4">
-        <v>1</v>
-      </c>
-      <c r="U15" s="4">
-        <v>1</v>
-      </c>
       <c r="V15" s="4">
         <v>1</v>
       </c>
       <c r="W15" s="4">
+        <v>1</v>
+      </c>
+      <c r="X15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="4">
         <v>53.75</v>
       </c>
-      <c r="X15" s="4">
+      <c r="Z15" s="4">
         <v>65</v>
       </c>
-      <c r="Y15" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
+      <c r="AA15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>1</v>
+      </c>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:36">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2800,69 +2864,71 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4">
         <v>2</v>
       </c>
-      <c r="L16" s="4">
+      <c r="N16" s="4">
         <v>8</v>
       </c>
-      <c r="M16" s="8">
-        <v>0</v>
-      </c>
-      <c r="N16" s="8">
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
         <v>180</v>
       </c>
-      <c r="O16" s="8">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4">
-        <v>1</v>
-      </c>
-      <c r="R16" s="4">
+      <c r="Q16" s="8">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
+      <c r="T16" s="4">
         <v>3</v>
       </c>
-      <c r="S16" s="4">
+      <c r="U16" s="4">
         <v>3</v>
       </c>
-      <c r="T16" s="4">
-        <v>1</v>
-      </c>
-      <c r="U16" s="4">
-        <v>1</v>
-      </c>
       <c r="V16" s="4">
         <v>1</v>
       </c>
       <c r="W16" s="4">
+        <v>1</v>
+      </c>
+      <c r="X16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="4">
         <v>53.75</v>
       </c>
-      <c r="X16" s="4">
+      <c r="Z16" s="4">
         <v>65</v>
       </c>
-      <c r="Y16" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
+      <c r="AA16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>5</v>
+      </c>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:36">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2870,69 +2936,71 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
         <v>3</v>
       </c>
-      <c r="L17" s="4">
+      <c r="N17" s="4">
         <v>7</v>
       </c>
-      <c r="M17" s="8">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
         <v>180</v>
       </c>
-      <c r="O17" s="8">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4">
-        <v>1</v>
-      </c>
-      <c r="R17" s="4">
+      <c r="Q17" s="8">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4">
+        <v>1</v>
+      </c>
+      <c r="T17" s="4">
         <v>4</v>
       </c>
-      <c r="S17" s="4">
+      <c r="U17" s="4">
         <v>4</v>
       </c>
-      <c r="T17" s="4">
-        <v>1</v>
-      </c>
-      <c r="U17" s="4">
-        <v>1</v>
-      </c>
       <c r="V17" s="4">
         <v>1</v>
       </c>
       <c r="W17" s="4">
+        <v>1</v>
+      </c>
+      <c r="X17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="4">
         <v>57.5</v>
       </c>
-      <c r="X17" s="4">
+      <c r="Z17" s="4">
         <v>68.75</v>
       </c>
-      <c r="Y17" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="4">
+      <c r="AA17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="4">
         <v>4</v>
       </c>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:36">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2940,69 +3008,71 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4">
         <v>4</v>
       </c>
-      <c r="L18" s="4">
+      <c r="N18" s="4">
         <v>8</v>
       </c>
-      <c r="M18" s="8">
-        <v>0</v>
-      </c>
-      <c r="N18" s="8">
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="8">
         <v>180</v>
       </c>
-      <c r="O18" s="8">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4">
-        <v>1</v>
-      </c>
-      <c r="R18" s="4">
-        <v>5</v>
-      </c>
+      <c r="Q18" s="8">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4"/>
       <c r="S18" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T18" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U18" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V18" s="4">
         <v>1</v>
       </c>
       <c r="W18" s="4">
+        <v>1</v>
+      </c>
+      <c r="X18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="4">
         <v>87.5</v>
       </c>
-      <c r="X18" s="4">
+      <c r="Z18" s="4">
         <v>98.75</v>
       </c>
-      <c r="Y18" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
+      <c r="AA18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>5</v>
+      </c>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:36">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -3010,235 +3080,245 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4">
-        <v>5</v>
-      </c>
-      <c r="L19" s="4">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4">
+        <v>5</v>
+      </c>
+      <c r="N19" s="4">
         <v>9</v>
       </c>
-      <c r="M19" s="8">
-        <v>0</v>
-      </c>
-      <c r="N19" s="8">
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
+      <c r="P19" s="8">
         <v>180</v>
       </c>
-      <c r="O19" s="8">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4">
-        <v>1</v>
-      </c>
-      <c r="R19" s="4">
+      <c r="Q19" s="8">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4">
         <v>9</v>
       </c>
-      <c r="S19" s="4">
+      <c r="U19" s="4">
         <v>9</v>
       </c>
-      <c r="T19" s="4">
-        <v>1</v>
-      </c>
-      <c r="U19" s="4">
-        <v>1</v>
-      </c>
       <c r="V19" s="4">
         <v>1</v>
       </c>
       <c r="W19" s="4">
+        <v>1</v>
+      </c>
+      <c r="X19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="4">
         <v>412.5</v>
       </c>
-      <c r="X19" s="4">
+      <c r="Z19" s="4">
         <v>420</v>
       </c>
-      <c r="Y19" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z19" s="4">
+      <c r="AA19" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB19" s="4">
         <v>6</v>
       </c>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:36">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="4"/>
       <c r="D20" s="9"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" s="9">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="9">
         <v>3</v>
       </c>
-      <c r="L20" s="9">
+      <c r="N20" s="9">
         <v>6</v>
       </c>
-      <c r="M20" s="8">
-        <v>0</v>
-      </c>
-      <c r="N20" s="8">
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8">
         <v>180</v>
       </c>
-      <c r="O20" s="8">
-        <v>0</v>
-      </c>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9">
-        <v>1</v>
-      </c>
-      <c r="R20" s="9">
+      <c r="Q20" s="8">
+        <v>0</v>
+      </c>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9">
+        <v>1</v>
+      </c>
+      <c r="T20" s="9">
         <v>10</v>
       </c>
-      <c r="S20" s="9">
+      <c r="U20" s="9">
         <v>10</v>
       </c>
-      <c r="T20" s="9">
-        <v>1</v>
-      </c>
-      <c r="U20" s="9">
-        <v>1</v>
-      </c>
       <c r="V20" s="9">
         <v>1</v>
       </c>
       <c r="W20" s="9">
+        <v>1</v>
+      </c>
+      <c r="X20" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="9">
         <v>10</v>
       </c>
-      <c r="X20" s="9">
+      <c r="Z20" s="9">
         <v>10</v>
       </c>
-      <c r="Y20" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9">
+      <c r="AA20" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9">
         <v>30</v>
       </c>
-      <c r="AC20" s="9">
+      <c r="AE20" s="9">
         <v>1000000</v>
       </c>
-      <c r="AD20" s="9">
+      <c r="AF20" s="9">
         <v>20</v>
       </c>
-      <c r="AE20" s="9">
+      <c r="AG20" s="9">
         <v>1.4</v>
       </c>
-      <c r="AF20" s="9">
+      <c r="AH20" s="9">
         <v>10000</v>
       </c>
-      <c r="AG20" s="9">
+      <c r="AI20" s="9">
         <v>1000000</v>
       </c>
-      <c r="AH20" s="9"/>
+      <c r="AJ20" s="9"/>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:36">
       <c r="A21" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B21" s="4">
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F21" s="4">
+        <v>1100</v>
+      </c>
+      <c r="G21" s="4">
+        <v>25</v>
+      </c>
+      <c r="H21" s="4">
         <v>30</v>
       </c>
-      <c r="G21" s="4">
+      <c r="I21" s="4">
         <v>45</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4">
-        <v>1</v>
-      </c>
-      <c r="L21" s="4">
+      <c r="J21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4">
         <v>9</v>
       </c>
-      <c r="M21" s="8">
-        <v>0</v>
-      </c>
-      <c r="N21" s="8">
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="8">
         <v>180</v>
       </c>
-      <c r="O21" s="8">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4">
-        <v>1</v>
-      </c>
-      <c r="R21" s="4">
-        <v>5</v>
-      </c>
+      <c r="Q21" s="8">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4"/>
       <c r="S21" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T21" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U21" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V21" s="4">
         <v>1</v>
       </c>
       <c r="W21" s="4">
+        <v>1</v>
+      </c>
+      <c r="X21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="4">
         <v>82.5</v>
       </c>
-      <c r="X21" s="4">
+      <c r="Z21" s="4">
         <v>108.75</v>
       </c>
-      <c r="Y21" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="4">
+      <c r="AA21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="4">
         <v>2</v>
       </c>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:36">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3246,69 +3326,71 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4">
         <v>2</v>
       </c>
-      <c r="L22" s="4">
+      <c r="N22" s="4">
         <v>8</v>
       </c>
-      <c r="M22" s="8">
-        <v>0</v>
-      </c>
-      <c r="N22" s="8">
+      <c r="O22" s="8">
+        <v>0</v>
+      </c>
+      <c r="P22" s="8">
         <v>180</v>
       </c>
-      <c r="O22" s="8">
-        <v>0</v>
-      </c>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4">
-        <v>1</v>
-      </c>
-      <c r="R22" s="4">
-        <v>5</v>
-      </c>
+      <c r="Q22" s="8">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4"/>
       <c r="S22" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U22" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V22" s="4">
         <v>1</v>
       </c>
       <c r="W22" s="4">
+        <v>1</v>
+      </c>
+      <c r="X22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="4">
         <v>82.5</v>
       </c>
-      <c r="X22" s="4">
+      <c r="Z22" s="4">
         <v>108.75</v>
       </c>
-      <c r="Y22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="4">
+      <c r="AA22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="4">
         <v>4</v>
       </c>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:36">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3316,69 +3398,71 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4">
         <v>3</v>
       </c>
-      <c r="L23" s="4">
+      <c r="N23" s="4">
         <v>7</v>
       </c>
-      <c r="M23" s="8">
-        <v>0</v>
-      </c>
-      <c r="N23" s="8">
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="8">
         <v>180</v>
       </c>
-      <c r="O23" s="8">
-        <v>0</v>
-      </c>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4">
-        <v>1</v>
-      </c>
-      <c r="R23" s="4">
-        <v>5</v>
-      </c>
+      <c r="Q23" s="8">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4"/>
       <c r="S23" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T23" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U23" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V23" s="4">
         <v>1</v>
       </c>
       <c r="W23" s="4">
+        <v>1</v>
+      </c>
+      <c r="X23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="4">
         <v>82.5</v>
       </c>
-      <c r="X23" s="4">
+      <c r="Z23" s="4">
         <v>116.25</v>
       </c>
-      <c r="Y23" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
+      <c r="AA23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>5</v>
+      </c>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:36">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -3386,69 +3470,71 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4">
         <v>4</v>
       </c>
-      <c r="L24" s="4">
+      <c r="N24" s="4">
         <v>8</v>
       </c>
-      <c r="M24" s="8">
-        <v>0</v>
-      </c>
-      <c r="N24" s="8">
+      <c r="O24" s="8">
+        <v>0</v>
+      </c>
+      <c r="P24" s="8">
         <v>180</v>
       </c>
-      <c r="O24" s="8">
-        <v>0</v>
-      </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4">
-        <v>1</v>
-      </c>
-      <c r="R24" s="4">
-        <v>5</v>
-      </c>
+      <c r="Q24" s="8">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4"/>
       <c r="S24" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T24" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U24" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V24" s="4">
         <v>1</v>
       </c>
       <c r="W24" s="4">
+        <v>1</v>
+      </c>
+      <c r="X24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="4">
         <v>56.25</v>
       </c>
-      <c r="X24" s="4">
+      <c r="Z24" s="4">
         <v>63.75</v>
       </c>
-      <c r="Y24" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="4">
+      <c r="AA24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="4">
         <v>4</v>
       </c>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:36">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3456,235 +3542,245 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4">
-        <v>5</v>
-      </c>
-      <c r="L25" s="4">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4">
+        <v>5</v>
+      </c>
+      <c r="N25" s="4">
         <v>9</v>
       </c>
-      <c r="M25" s="8">
-        <v>0</v>
-      </c>
-      <c r="N25" s="8">
+      <c r="O25" s="8">
+        <v>0</v>
+      </c>
+      <c r="P25" s="8">
         <v>180</v>
       </c>
-      <c r="O25" s="8">
-        <v>0</v>
-      </c>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4">
-        <v>1</v>
-      </c>
-      <c r="R25" s="4">
+      <c r="Q25" s="8">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4">
+        <v>1</v>
+      </c>
+      <c r="T25" s="4">
         <v>10</v>
       </c>
-      <c r="S25" s="4">
+      <c r="U25" s="4">
         <v>10</v>
       </c>
-      <c r="T25" s="4">
-        <v>1</v>
-      </c>
-      <c r="U25" s="4">
-        <v>1</v>
-      </c>
       <c r="V25" s="4">
         <v>1</v>
       </c>
       <c r="W25" s="4">
+        <v>1</v>
+      </c>
+      <c r="X25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="4">
         <v>517.5</v>
       </c>
-      <c r="X25" s="4">
+      <c r="Z25" s="4">
         <v>543.75</v>
       </c>
-      <c r="Y25" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z25" s="4">
+      <c r="AA25" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB25" s="4">
         <v>6</v>
       </c>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:36">
       <c r="A26" s="4"/>
       <c r="B26" s="9"/>
       <c r="C26" s="4"/>
       <c r="D26" s="9"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K26" s="9">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M26" s="9">
         <v>3</v>
       </c>
-      <c r="L26" s="9">
+      <c r="N26" s="9">
         <v>6</v>
       </c>
-      <c r="M26" s="8">
-        <v>0</v>
-      </c>
-      <c r="N26" s="8">
+      <c r="O26" s="8">
+        <v>0</v>
+      </c>
+      <c r="P26" s="8">
         <v>180</v>
       </c>
-      <c r="O26" s="8">
-        <v>0</v>
-      </c>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9">
-        <v>1</v>
-      </c>
-      <c r="R26" s="9">
+      <c r="Q26" s="8">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9">
+        <v>1</v>
+      </c>
+      <c r="T26" s="9">
         <v>10</v>
       </c>
-      <c r="S26" s="9">
+      <c r="U26" s="9">
         <v>10</v>
       </c>
-      <c r="T26" s="9">
-        <v>1</v>
-      </c>
-      <c r="U26" s="9">
-        <v>1</v>
-      </c>
       <c r="V26" s="9">
         <v>1</v>
       </c>
       <c r="W26" s="9">
+        <v>1</v>
+      </c>
+      <c r="X26" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="9">
         <v>10</v>
       </c>
-      <c r="X26" s="9">
+      <c r="Z26" s="9">
         <v>10</v>
       </c>
-      <c r="Y26" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9">
+      <c r="AA26" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9">
         <v>25</v>
       </c>
-      <c r="AC26" s="9">
+      <c r="AE26" s="9">
         <v>10000000</v>
       </c>
-      <c r="AD26" s="9">
+      <c r="AF26" s="9">
         <v>200</v>
       </c>
-      <c r="AE26" s="9">
+      <c r="AG26" s="9">
         <v>1.4</v>
       </c>
-      <c r="AF26" s="9">
+      <c r="AH26" s="9">
         <v>10000</v>
       </c>
-      <c r="AG26" s="9">
+      <c r="AI26" s="9">
         <v>1000000</v>
       </c>
-      <c r="AH26" s="9"/>
+      <c r="AJ26" s="9"/>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:36">
       <c r="A27" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B27" s="4">
         <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F27" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="4">
+        <v>20</v>
+      </c>
+      <c r="H27" s="4">
         <v>30</v>
       </c>
-      <c r="G27" s="4">
+      <c r="I27" s="4">
         <v>45</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4">
-        <v>1</v>
-      </c>
-      <c r="L27" s="4">
+      <c r="J27" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4">
+        <v>1</v>
+      </c>
+      <c r="N27" s="4">
         <v>9</v>
       </c>
-      <c r="M27" s="8">
-        <v>0</v>
-      </c>
-      <c r="N27" s="8">
+      <c r="O27" s="8">
+        <v>0</v>
+      </c>
+      <c r="P27" s="8">
         <v>180</v>
       </c>
-      <c r="O27" s="8">
-        <v>0</v>
-      </c>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4">
-        <v>1</v>
-      </c>
-      <c r="R27" s="4">
+      <c r="Q27" s="8">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4">
+        <v>1</v>
+      </c>
+      <c r="T27" s="4">
         <v>5.5</v>
       </c>
-      <c r="S27" s="4">
+      <c r="U27" s="4">
         <v>5.5</v>
       </c>
-      <c r="T27" s="4">
-        <v>1</v>
-      </c>
-      <c r="U27" s="4">
-        <v>1</v>
-      </c>
       <c r="V27" s="4">
         <v>1</v>
       </c>
       <c r="W27" s="4">
+        <v>1</v>
+      </c>
+      <c r="X27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="4">
         <v>102.5</v>
       </c>
-      <c r="X27" s="4">
+      <c r="Z27" s="4">
         <v>140</v>
       </c>
-      <c r="Y27" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="4">
+      <c r="AA27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="4">
         <v>4</v>
       </c>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:36">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3692,69 +3788,71 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4">
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4">
         <v>2</v>
       </c>
-      <c r="L28" s="4">
+      <c r="N28" s="4">
         <v>8</v>
       </c>
-      <c r="M28" s="8">
-        <v>0</v>
-      </c>
-      <c r="N28" s="8">
+      <c r="O28" s="8">
+        <v>0</v>
+      </c>
+      <c r="P28" s="8">
         <v>180</v>
       </c>
-      <c r="O28" s="8">
-        <v>0</v>
-      </c>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4">
-        <v>1</v>
-      </c>
-      <c r="R28" s="4">
+      <c r="Q28" s="8">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4">
+        <v>1</v>
+      </c>
+      <c r="T28" s="4">
         <v>6</v>
       </c>
-      <c r="S28" s="4">
+      <c r="U28" s="4">
         <v>6</v>
       </c>
-      <c r="T28" s="4">
-        <v>1</v>
-      </c>
-      <c r="U28" s="4">
-        <v>1</v>
-      </c>
       <c r="V28" s="4">
         <v>1</v>
       </c>
       <c r="W28" s="4">
+        <v>1</v>
+      </c>
+      <c r="X28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="4">
         <v>102.5</v>
       </c>
-      <c r="X28" s="4">
+      <c r="Z28" s="4">
         <v>140</v>
       </c>
-      <c r="Y28" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
+      <c r="AA28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>5</v>
+      </c>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
       <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:36">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3762,69 +3860,71 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4">
         <v>3</v>
       </c>
-      <c r="L29" s="4">
+      <c r="N29" s="4">
         <v>7</v>
       </c>
-      <c r="M29" s="8">
-        <v>0</v>
-      </c>
-      <c r="N29" s="8">
+      <c r="O29" s="8">
+        <v>0</v>
+      </c>
+      <c r="P29" s="8">
         <v>180</v>
       </c>
-      <c r="O29" s="8">
-        <v>0</v>
-      </c>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4">
-        <v>1</v>
-      </c>
-      <c r="R29" s="4">
+      <c r="Q29" s="8">
+        <v>0</v>
+      </c>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4">
+        <v>1</v>
+      </c>
+      <c r="T29" s="4">
         <v>6</v>
       </c>
-      <c r="S29" s="4">
+      <c r="U29" s="4">
         <v>6</v>
       </c>
-      <c r="T29" s="4">
-        <v>1</v>
-      </c>
-      <c r="U29" s="4">
-        <v>1</v>
-      </c>
       <c r="V29" s="4">
         <v>1</v>
       </c>
       <c r="W29" s="4">
+        <v>1</v>
+      </c>
+      <c r="X29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="4">
         <v>102.5</v>
       </c>
-      <c r="X29" s="4">
+      <c r="Z29" s="4">
         <v>140</v>
       </c>
-      <c r="Y29" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="4">
+      <c r="AA29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="4">
         <v>7</v>
       </c>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
       <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:36">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3832,69 +3932,71 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4">
         <v>4</v>
       </c>
-      <c r="L30" s="4">
+      <c r="N30" s="4">
         <v>8</v>
       </c>
-      <c r="M30" s="8">
-        <v>0</v>
-      </c>
-      <c r="N30" s="8">
+      <c r="O30" s="8">
+        <v>0</v>
+      </c>
+      <c r="P30" s="8">
         <v>180</v>
       </c>
-      <c r="O30" s="8">
-        <v>0</v>
-      </c>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4">
-        <v>1</v>
-      </c>
-      <c r="R30" s="4">
+      <c r="Q30" s="8">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4">
+        <v>1</v>
+      </c>
+      <c r="T30" s="4">
         <v>6</v>
       </c>
-      <c r="S30" s="4">
+      <c r="U30" s="4">
         <v>6</v>
       </c>
-      <c r="T30" s="4">
-        <v>1</v>
-      </c>
-      <c r="U30" s="4">
-        <v>1</v>
-      </c>
       <c r="V30" s="4">
         <v>1</v>
       </c>
       <c r="W30" s="4">
+        <v>1</v>
+      </c>
+      <c r="X30" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="4">
         <v>102.5</v>
       </c>
-      <c r="X30" s="4">
+      <c r="Z30" s="4">
         <v>140</v>
       </c>
-      <c r="Y30" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="4">
+      <c r="AA30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="4">
         <v>8</v>
       </c>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
       <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:36">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3902,235 +4004,245 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4">
-        <v>5</v>
-      </c>
-      <c r="L31" s="4">
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4">
+        <v>5</v>
+      </c>
+      <c r="N31" s="4">
         <v>9</v>
       </c>
-      <c r="M31" s="8">
-        <v>0</v>
-      </c>
-      <c r="N31" s="8">
+      <c r="O31" s="8">
+        <v>0</v>
+      </c>
+      <c r="P31" s="8">
         <v>180</v>
       </c>
-      <c r="O31" s="8">
-        <v>0</v>
-      </c>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4">
-        <v>1</v>
-      </c>
-      <c r="R31" s="4">
+      <c r="Q31" s="8">
+        <v>0</v>
+      </c>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4">
+        <v>1</v>
+      </c>
+      <c r="T31" s="4">
         <v>12</v>
       </c>
-      <c r="S31" s="4">
+      <c r="U31" s="4">
         <v>12</v>
       </c>
-      <c r="T31" s="4">
-        <v>1</v>
-      </c>
-      <c r="U31" s="4">
-        <v>1</v>
-      </c>
       <c r="V31" s="4">
         <v>1</v>
       </c>
       <c r="W31" s="4">
+        <v>1</v>
+      </c>
+      <c r="X31" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="4">
         <v>862.5</v>
       </c>
-      <c r="X31" s="4">
+      <c r="Z31" s="4">
         <v>900</v>
       </c>
-      <c r="Y31" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z31" s="4">
+      <c r="AA31" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB31" s="4">
         <v>9</v>
       </c>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
       <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:36">
       <c r="A32" s="4"/>
       <c r="B32" s="9"/>
       <c r="C32" s="4"/>
       <c r="D32" s="9"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K32" s="9">
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M32" s="9">
         <v>3</v>
       </c>
-      <c r="L32" s="9">
+      <c r="N32" s="9">
         <v>6</v>
       </c>
-      <c r="M32" s="8">
-        <v>0</v>
-      </c>
-      <c r="N32" s="8">
+      <c r="O32" s="8">
+        <v>0</v>
+      </c>
+      <c r="P32" s="8">
         <v>180</v>
       </c>
-      <c r="O32" s="8">
-        <v>0</v>
-      </c>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9">
-        <v>1</v>
-      </c>
-      <c r="R32" s="9">
+      <c r="Q32" s="8">
+        <v>0</v>
+      </c>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9">
+        <v>1</v>
+      </c>
+      <c r="T32" s="9">
         <v>10</v>
       </c>
-      <c r="S32" s="9">
+      <c r="U32" s="9">
         <v>10</v>
       </c>
-      <c r="T32" s="9">
-        <v>1</v>
-      </c>
-      <c r="U32" s="9">
-        <v>1</v>
-      </c>
       <c r="V32" s="9">
         <v>1</v>
       </c>
       <c r="W32" s="9">
+        <v>1</v>
+      </c>
+      <c r="X32" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="9">
         <v>10</v>
       </c>
-      <c r="X32" s="9">
+      <c r="Z32" s="9">
         <v>10</v>
       </c>
-      <c r="Y32" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9">
+      <c r="AA32" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9">
         <v>30</v>
       </c>
-      <c r="AC32" s="9">
+      <c r="AE32" s="9">
         <v>10000000</v>
       </c>
-      <c r="AD32" s="9">
+      <c r="AF32" s="9">
         <v>200</v>
       </c>
-      <c r="AE32" s="9">
+      <c r="AG32" s="9">
         <v>1.4</v>
       </c>
-      <c r="AF32" s="9">
+      <c r="AH32" s="9">
         <v>10000</v>
       </c>
-      <c r="AG32" s="9">
+      <c r="AI32" s="9">
         <v>1000000</v>
       </c>
-      <c r="AH32" s="9"/>
+      <c r="AJ32" s="9"/>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:36">
       <c r="A33" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B33" s="4">
         <v>6</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F33" s="4">
+        <v>1100</v>
+      </c>
+      <c r="G33" s="4">
+        <v>25</v>
+      </c>
+      <c r="H33" s="4">
         <v>30</v>
       </c>
-      <c r="G33" s="4">
+      <c r="I33" s="4">
         <v>50</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4">
-        <v>1</v>
-      </c>
-      <c r="L33" s="4">
+      <c r="J33" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4">
+        <v>1</v>
+      </c>
+      <c r="N33" s="4">
         <v>9</v>
       </c>
-      <c r="M33" s="8">
-        <v>0</v>
-      </c>
-      <c r="N33" s="8">
+      <c r="O33" s="8">
+        <v>0</v>
+      </c>
+      <c r="P33" s="8">
         <v>180</v>
       </c>
-      <c r="O33" s="8">
-        <v>0</v>
-      </c>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4">
-        <v>1</v>
-      </c>
-      <c r="R33" s="4">
-        <v>5</v>
-      </c>
+      <c r="Q33" s="8">
+        <v>0</v>
+      </c>
+      <c r="R33" s="4"/>
       <c r="S33" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T33" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U33" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V33" s="4">
         <v>1</v>
       </c>
       <c r="W33" s="4">
+        <v>1</v>
+      </c>
+      <c r="X33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="4">
         <v>150</v>
       </c>
-      <c r="X33" s="4">
+      <c r="Z33" s="4">
         <v>375</v>
       </c>
-      <c r="Y33" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z33" s="4">
+      <c r="AA33" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB33" s="4">
         <v>6</v>
       </c>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
       <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:36">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -4138,69 +4250,71 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4">
         <v>2</v>
       </c>
-      <c r="L34" s="4">
+      <c r="N34" s="4">
         <v>8</v>
       </c>
-      <c r="M34" s="8">
-        <v>0</v>
-      </c>
-      <c r="N34" s="8">
+      <c r="O34" s="8">
+        <v>0</v>
+      </c>
+      <c r="P34" s="8">
         <v>180</v>
       </c>
-      <c r="O34" s="8">
-        <v>0</v>
-      </c>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4">
-        <v>1</v>
-      </c>
-      <c r="R34" s="4">
+      <c r="Q34" s="8">
+        <v>0</v>
+      </c>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4">
+        <v>1</v>
+      </c>
+      <c r="T34" s="4">
         <v>11</v>
       </c>
-      <c r="S34" s="4">
+      <c r="U34" s="4">
         <v>11</v>
       </c>
-      <c r="T34" s="4">
-        <v>1</v>
-      </c>
-      <c r="U34" s="4">
-        <v>1</v>
-      </c>
       <c r="V34" s="4">
         <v>1</v>
       </c>
       <c r="W34" s="4">
+        <v>1</v>
+      </c>
+      <c r="X34" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="4">
         <v>150</v>
       </c>
-      <c r="X34" s="4">
+      <c r="Z34" s="4">
         <v>187.5</v>
       </c>
-      <c r="Y34" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="4">
+      <c r="AA34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="4">
         <v>7</v>
       </c>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:36">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -4208,69 +4322,71 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4">
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4">
         <v>3</v>
       </c>
-      <c r="L35" s="4">
+      <c r="N35" s="4">
         <v>7</v>
       </c>
-      <c r="M35" s="8">
-        <v>0</v>
-      </c>
-      <c r="N35" s="8">
+      <c r="O35" s="8">
+        <v>0</v>
+      </c>
+      <c r="P35" s="8">
         <v>180</v>
       </c>
-      <c r="O35" s="8">
-        <v>0</v>
-      </c>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4">
-        <v>1</v>
-      </c>
-      <c r="R35" s="4">
+      <c r="Q35" s="8">
+        <v>0</v>
+      </c>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4">
+        <v>1</v>
+      </c>
+      <c r="T35" s="4">
         <v>11</v>
       </c>
-      <c r="S35" s="4">
+      <c r="U35" s="4">
         <v>11</v>
       </c>
-      <c r="T35" s="4">
-        <v>1</v>
-      </c>
-      <c r="U35" s="4">
-        <v>1</v>
-      </c>
       <c r="V35" s="4">
         <v>1</v>
       </c>
       <c r="W35" s="4">
+        <v>1</v>
+      </c>
+      <c r="X35" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="4">
         <v>150</v>
       </c>
-      <c r="X35" s="4">
+      <c r="Z35" s="4">
         <v>187.5</v>
       </c>
-      <c r="Y35" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z35" s="4">
+      <c r="AA35" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB35" s="4">
         <v>9</v>
       </c>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:36">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -4278,69 +4394,71 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4">
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4">
         <v>4</v>
       </c>
-      <c r="L36" s="4">
+      <c r="N36" s="4">
         <v>8</v>
       </c>
-      <c r="M36" s="8">
-        <v>0</v>
-      </c>
-      <c r="N36" s="8">
+      <c r="O36" s="8">
+        <v>0</v>
+      </c>
+      <c r="P36" s="8">
         <v>180</v>
       </c>
-      <c r="O36" s="8">
-        <v>0</v>
-      </c>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4">
-        <v>1</v>
-      </c>
-      <c r="R36" s="4">
+      <c r="Q36" s="8">
+        <v>0</v>
+      </c>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4">
+        <v>1</v>
+      </c>
+      <c r="T36" s="4">
         <v>11</v>
       </c>
-      <c r="S36" s="4">
+      <c r="U36" s="4">
         <v>11</v>
       </c>
-      <c r="T36" s="4">
-        <v>1</v>
-      </c>
-      <c r="U36" s="4">
-        <v>1</v>
-      </c>
       <c r="V36" s="4">
         <v>1</v>
       </c>
       <c r="W36" s="4">
+        <v>1</v>
+      </c>
+      <c r="X36" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="4">
         <v>300</v>
       </c>
-      <c r="X36" s="4">
+      <c r="Z36" s="4">
         <v>375</v>
       </c>
-      <c r="Y36" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="4">
+      <c r="AA36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="4">
         <v>8</v>
       </c>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
       <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:36">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -4348,130 +4466,132 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4">
-        <v>5</v>
-      </c>
-      <c r="L37" s="4">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4">
+        <v>5</v>
+      </c>
+      <c r="N37" s="4">
         <v>9</v>
       </c>
-      <c r="M37" s="8">
-        <v>0</v>
-      </c>
-      <c r="N37" s="8">
+      <c r="O37" s="8">
+        <v>0</v>
+      </c>
+      <c r="P37" s="8">
         <v>180</v>
       </c>
-      <c r="O37" s="8">
-        <v>0</v>
-      </c>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4">
-        <v>1</v>
-      </c>
-      <c r="R37" s="4">
+      <c r="Q37" s="8">
+        <v>0</v>
+      </c>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4">
+        <v>1</v>
+      </c>
+      <c r="T37" s="4">
         <v>25</v>
       </c>
-      <c r="S37" s="4">
+      <c r="U37" s="4">
         <v>25</v>
       </c>
-      <c r="T37" s="4">
-        <v>1</v>
-      </c>
-      <c r="U37" s="4">
-        <v>1</v>
-      </c>
       <c r="V37" s="4">
         <v>1</v>
       </c>
       <c r="W37" s="4">
+        <v>1</v>
+      </c>
+      <c r="X37" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="4">
         <v>723.75</v>
       </c>
-      <c r="X37" s="4">
+      <c r="Z37" s="4">
         <v>765</v>
       </c>
-      <c r="Y37" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z37" s="4">
+      <c r="AA37" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB37" s="4">
         <v>9</v>
       </c>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
       <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:36">
       <c r="A38" s="4"/>
       <c r="B38" s="9"/>
       <c r="C38" s="4"/>
       <c r="D38" s="9"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="K38" s="9">
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M38" s="9">
         <v>3</v>
       </c>
-      <c r="L38" s="9">
+      <c r="N38" s="9">
         <v>6</v>
       </c>
-      <c r="M38" s="8">
-        <v>0</v>
-      </c>
-      <c r="N38" s="8">
+      <c r="O38" s="8">
+        <v>0</v>
+      </c>
+      <c r="P38" s="8">
         <v>180</v>
       </c>
-      <c r="O38" s="8">
-        <v>0</v>
-      </c>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9">
-        <v>1</v>
-      </c>
-      <c r="R38" s="9">
+      <c r="Q38" s="8">
+        <v>0</v>
+      </c>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9">
+        <v>1</v>
+      </c>
+      <c r="T38" s="9">
         <v>2.5</v>
       </c>
-      <c r="S38" s="9">
+      <c r="U38" s="9">
         <v>2.5</v>
       </c>
-      <c r="T38" s="9">
-        <v>1</v>
-      </c>
-      <c r="U38" s="9">
-        <v>1</v>
-      </c>
       <c r="V38" s="9">
         <v>1</v>
       </c>
       <c r="W38" s="9">
+        <v>1</v>
+      </c>
+      <c r="X38" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="9">
         <v>10</v>
       </c>
-      <c r="X38" s="9">
+      <c r="Z38" s="9">
         <v>10</v>
       </c>
-      <c r="Y38" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
+      <c r="AA38" s="9">
+        <v>1</v>
+      </c>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
       <c r="AD38" s="9"/>
@@ -4479,58 +4599,60 @@
       <c r="AF38" s="9"/>
       <c r="AG38" s="9"/>
       <c r="AH38" s="9"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="9"/>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:36">
       <c r="A39" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B39" s="4">
         <v>7</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F39" s="4">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G39" s="4">
         <v>20</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4">
-        <v>1</v>
-      </c>
-      <c r="L39" s="4">
+      <c r="H39" s="4">
+        <v>30</v>
+      </c>
+      <c r="I39" s="4">
+        <v>20</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4">
+        <v>1</v>
+      </c>
+      <c r="N39" s="4">
         <v>9</v>
       </c>
-      <c r="M39" s="8">
-        <v>0</v>
-      </c>
-      <c r="N39" s="8">
+      <c r="O39" s="8">
+        <v>0</v>
+      </c>
+      <c r="P39" s="8">
         <v>180</v>
       </c>
-      <c r="O39" s="8">
-        <v>0</v>
-      </c>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4">
-        <v>1</v>
-      </c>
-      <c r="R39" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q39" s="8">
+        <v>0</v>
+      </c>
+      <c r="R39" s="4"/>
       <c r="S39" s="4">
         <v>1</v>
       </c>
@@ -4544,27 +4666,33 @@
         <v>1</v>
       </c>
       <c r="W39" s="4">
+        <v>1</v>
+      </c>
+      <c r="X39" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="4">
         <v>780</v>
       </c>
-      <c r="X39" s="4">
+      <c r="Z39" s="4">
         <v>825</v>
       </c>
-      <c r="Y39" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z39" s="4">
+      <c r="AA39" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB39" s="4">
         <v>7</v>
       </c>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:36">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -4572,35 +4700,31 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4">
         <v>2</v>
       </c>
-      <c r="L40" s="4">
+      <c r="N40" s="4">
         <v>8</v>
       </c>
-      <c r="M40" s="8">
-        <v>0</v>
-      </c>
-      <c r="N40" s="8">
+      <c r="O40" s="8">
+        <v>0</v>
+      </c>
+      <c r="P40" s="8">
         <v>180</v>
       </c>
-      <c r="O40" s="8">
-        <v>0</v>
-      </c>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4">
-        <v>1</v>
-      </c>
-      <c r="R40" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q40" s="8">
+        <v>0</v>
+      </c>
+      <c r="R40" s="4"/>
       <c r="S40" s="4">
         <v>1</v>
       </c>
@@ -4614,27 +4738,33 @@
         <v>1</v>
       </c>
       <c r="W40" s="4">
+        <v>1</v>
+      </c>
+      <c r="X40" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="4">
         <v>780</v>
       </c>
-      <c r="X40" s="4">
+      <c r="Z40" s="4">
         <v>825</v>
       </c>
-      <c r="Y40" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z40" s="4">
+      <c r="AA40" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB40" s="4">
         <v>8</v>
       </c>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
       <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:36">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -4642,35 +4772,31 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4">
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4">
         <v>3</v>
       </c>
-      <c r="L41" s="4">
+      <c r="N41" s="4">
         <v>7</v>
       </c>
-      <c r="M41" s="8">
-        <v>0</v>
-      </c>
-      <c r="N41" s="8">
+      <c r="O41" s="8">
+        <v>0</v>
+      </c>
+      <c r="P41" s="8">
         <v>180</v>
       </c>
-      <c r="O41" s="8">
-        <v>0</v>
-      </c>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4">
-        <v>1</v>
-      </c>
-      <c r="R41" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q41" s="8">
+        <v>0</v>
+      </c>
+      <c r="R41" s="4"/>
       <c r="S41" s="4">
         <v>1</v>
       </c>
@@ -4684,27 +4810,33 @@
         <v>1</v>
       </c>
       <c r="W41" s="4">
+        <v>1</v>
+      </c>
+      <c r="X41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="4">
         <v>780</v>
       </c>
-      <c r="X41" s="4">
+      <c r="Z41" s="4">
         <v>825</v>
       </c>
-      <c r="Y41" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="4">
+      <c r="AA41" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="4">
         <v>10</v>
       </c>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
       <c r="AG41" s="4"/>
       <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:36">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -4712,35 +4844,31 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4">
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4">
         <v>4</v>
       </c>
-      <c r="L42" s="4">
+      <c r="N42" s="4">
         <v>8</v>
       </c>
-      <c r="M42" s="8">
-        <v>0</v>
-      </c>
-      <c r="N42" s="8">
+      <c r="O42" s="8">
+        <v>0</v>
+      </c>
+      <c r="P42" s="8">
         <v>180</v>
       </c>
-      <c r="O42" s="8">
-        <v>0</v>
-      </c>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4">
-        <v>1</v>
-      </c>
-      <c r="R42" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q42" s="8">
+        <v>0</v>
+      </c>
+      <c r="R42" s="4"/>
       <c r="S42" s="4">
         <v>1</v>
       </c>
@@ -4754,27 +4882,33 @@
         <v>1</v>
       </c>
       <c r="W42" s="4">
+        <v>1</v>
+      </c>
+      <c r="X42" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="4">
         <v>780</v>
       </c>
-      <c r="X42" s="4">
+      <c r="Z42" s="4">
         <v>825</v>
       </c>
-      <c r="Y42" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="4">
+      <c r="AA42" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB42" s="4">
         <v>11</v>
       </c>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
       <c r="AG42" s="4"/>
       <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:36">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -4782,235 +4916,245 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4">
-        <v>5</v>
-      </c>
-      <c r="L43" s="4">
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4">
+        <v>5</v>
+      </c>
+      <c r="N43" s="4">
         <v>9</v>
       </c>
-      <c r="M43" s="8">
-        <v>0</v>
-      </c>
-      <c r="N43" s="8">
+      <c r="O43" s="8">
+        <v>0</v>
+      </c>
+      <c r="P43" s="8">
         <v>180</v>
       </c>
-      <c r="O43" s="8">
-        <v>0</v>
-      </c>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4">
-        <v>1</v>
-      </c>
-      <c r="R43" s="4">
-        <v>5</v>
-      </c>
+      <c r="Q43" s="8">
+        <v>0</v>
+      </c>
+      <c r="R43" s="4"/>
       <c r="S43" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T43" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U43" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V43" s="4">
         <v>1</v>
       </c>
       <c r="W43" s="4">
+        <v>1</v>
+      </c>
+      <c r="X43" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="4">
         <v>825</v>
       </c>
-      <c r="X43" s="4">
+      <c r="Z43" s="4">
         <v>873.75</v>
       </c>
-      <c r="Y43" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="4">
+      <c r="AA43" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="4">
         <v>12</v>
       </c>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
       <c r="AG43" s="4"/>
       <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:36">
       <c r="A44" s="4"/>
       <c r="B44" s="9"/>
       <c r="C44" s="4"/>
       <c r="D44" s="9"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K44" s="9">
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M44" s="9">
         <v>3</v>
       </c>
-      <c r="L44" s="9">
+      <c r="N44" s="9">
         <v>6</v>
       </c>
-      <c r="M44" s="8">
-        <v>0</v>
-      </c>
-      <c r="N44" s="8">
+      <c r="O44" s="8">
+        <v>0</v>
+      </c>
+      <c r="P44" s="8">
         <v>180</v>
       </c>
-      <c r="O44" s="8">
-        <v>0</v>
-      </c>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9">
-        <v>1</v>
-      </c>
-      <c r="R44" s="9">
+      <c r="Q44" s="8">
+        <v>0</v>
+      </c>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9">
+        <v>1</v>
+      </c>
+      <c r="T44" s="9">
         <v>10</v>
       </c>
-      <c r="S44" s="9">
+      <c r="U44" s="9">
         <v>10</v>
       </c>
-      <c r="T44" s="9">
-        <v>1</v>
-      </c>
-      <c r="U44" s="9">
-        <v>1</v>
-      </c>
       <c r="V44" s="9">
         <v>1</v>
       </c>
       <c r="W44" s="9">
+        <v>1</v>
+      </c>
+      <c r="X44" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="9">
         <v>10</v>
       </c>
-      <c r="X44" s="9">
+      <c r="Z44" s="9">
         <v>10</v>
       </c>
-      <c r="Y44" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9">
+      <c r="AA44" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
+      <c r="AD44" s="9">
         <v>25</v>
       </c>
-      <c r="AC44" s="9">
+      <c r="AE44" s="9">
         <v>10000000</v>
       </c>
-      <c r="AD44" s="9">
+      <c r="AF44" s="9">
         <v>200</v>
       </c>
-      <c r="AE44" s="9">
+      <c r="AG44" s="9">
         <v>1.4</v>
       </c>
-      <c r="AF44" s="9">
+      <c r="AH44" s="9">
         <v>5000</v>
       </c>
-      <c r="AG44" s="9">
+      <c r="AI44" s="9">
         <v>1000000</v>
       </c>
-      <c r="AH44" s="9"/>
+      <c r="AJ44" s="9"/>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:36">
       <c r="A45" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B45" s="4">
         <v>8</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F45" s="4">
+        <v>1100</v>
+      </c>
+      <c r="G45" s="4">
+        <v>25</v>
+      </c>
+      <c r="H45" s="4">
         <v>30</v>
       </c>
-      <c r="G45" s="4">
+      <c r="I45" s="4">
         <v>45</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4">
-        <v>1</v>
-      </c>
-      <c r="L45" s="4">
+      <c r="J45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4">
+        <v>1</v>
+      </c>
+      <c r="N45" s="4">
         <v>9</v>
       </c>
-      <c r="M45" s="8">
-        <v>0</v>
-      </c>
-      <c r="N45" s="8">
+      <c r="O45" s="8">
+        <v>0</v>
+      </c>
+      <c r="P45" s="8">
         <v>180</v>
       </c>
-      <c r="O45" s="8">
-        <v>0</v>
-      </c>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4">
-        <v>1</v>
-      </c>
-      <c r="R45" s="4">
-        <v>5</v>
-      </c>
+      <c r="Q45" s="8">
+        <v>0</v>
+      </c>
+      <c r="R45" s="4"/>
       <c r="S45" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T45" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U45" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V45" s="4">
         <v>1</v>
       </c>
       <c r="W45" s="4">
+        <v>1</v>
+      </c>
+      <c r="X45" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="4">
         <v>780</v>
       </c>
-      <c r="X45" s="4">
+      <c r="Z45" s="4">
         <v>825</v>
       </c>
-      <c r="Y45" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z45" s="4">
+      <c r="AA45" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB45" s="4">
         <v>12</v>
       </c>
-      <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
       <c r="AF45" s="4"/>
       <c r="AG45" s="4"/>
       <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:36">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -5018,69 +5162,71 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4">
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4">
         <v>2</v>
       </c>
-      <c r="L46" s="4">
+      <c r="N46" s="4">
         <v>8</v>
       </c>
-      <c r="M46" s="8">
-        <v>0</v>
-      </c>
-      <c r="N46" s="8">
+      <c r="O46" s="8">
+        <v>0</v>
+      </c>
+      <c r="P46" s="8">
         <v>180</v>
       </c>
-      <c r="O46" s="8">
-        <v>0</v>
-      </c>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4">
-        <v>1</v>
-      </c>
-      <c r="R46" s="4">
+      <c r="Q46" s="8">
+        <v>0</v>
+      </c>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4">
+        <v>1</v>
+      </c>
+      <c r="T46" s="4">
         <v>2</v>
       </c>
-      <c r="S46" s="4">
+      <c r="U46" s="4">
         <v>2</v>
       </c>
-      <c r="T46" s="4">
-        <v>1</v>
-      </c>
-      <c r="U46" s="4">
-        <v>1</v>
-      </c>
       <c r="V46" s="4">
         <v>1</v>
       </c>
       <c r="W46" s="4">
+        <v>1</v>
+      </c>
+      <c r="X46" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="4">
         <v>780</v>
       </c>
-      <c r="X46" s="4">
+      <c r="Z46" s="4">
         <v>825</v>
       </c>
-      <c r="Y46" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z46" s="4">
+      <c r="AA46" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB46" s="4">
         <v>11</v>
       </c>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
       <c r="AG46" s="4"/>
       <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:36">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -5088,35 +5234,31 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4">
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4">
         <v>3</v>
       </c>
-      <c r="L47" s="4">
+      <c r="N47" s="4">
         <v>7</v>
       </c>
-      <c r="M47" s="8">
-        <v>0</v>
-      </c>
-      <c r="N47" s="8">
+      <c r="O47" s="8">
+        <v>0</v>
+      </c>
+      <c r="P47" s="8">
         <v>180</v>
       </c>
-      <c r="O47" s="8">
-        <v>0</v>
-      </c>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4">
-        <v>1</v>
-      </c>
-      <c r="R47" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q47" s="8">
+        <v>0</v>
+      </c>
+      <c r="R47" s="4"/>
       <c r="S47" s="4">
         <v>1</v>
       </c>
@@ -5130,27 +5272,33 @@
         <v>1</v>
       </c>
       <c r="W47" s="4">
+        <v>1</v>
+      </c>
+      <c r="X47" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="4">
         <v>780</v>
       </c>
-      <c r="X47" s="4">
+      <c r="Z47" s="4">
         <v>825</v>
       </c>
-      <c r="Y47" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="4">
+      <c r="AA47" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="4">
         <v>10</v>
       </c>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
       <c r="AH47" s="4"/>
+      <c r="AI47" s="4"/>
+      <c r="AJ47" s="4"/>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:36">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -5158,35 +5306,31 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4">
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4">
         <v>4</v>
       </c>
-      <c r="L48" s="4">
+      <c r="N48" s="4">
         <v>8</v>
       </c>
-      <c r="M48" s="8">
-        <v>0</v>
-      </c>
-      <c r="N48" s="8">
+      <c r="O48" s="8">
+        <v>0</v>
+      </c>
+      <c r="P48" s="8">
         <v>180</v>
       </c>
-      <c r="O48" s="8">
-        <v>0</v>
-      </c>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4">
-        <v>1</v>
-      </c>
-      <c r="R48" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q48" s="8">
+        <v>0</v>
+      </c>
+      <c r="R48" s="4"/>
       <c r="S48" s="4">
         <v>1</v>
       </c>
@@ -5200,27 +5344,33 @@
         <v>1</v>
       </c>
       <c r="W48" s="4">
+        <v>1</v>
+      </c>
+      <c r="X48" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="4">
         <v>825</v>
       </c>
-      <c r="X48" s="4">
+      <c r="Z48" s="4">
         <v>873.75</v>
       </c>
-      <c r="Y48" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="4">
+      <c r="AA48" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="4">
         <v>11</v>
       </c>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
       <c r="AG48" s="4"/>
       <c r="AH48" s="4"/>
+      <c r="AI48" s="4"/>
+      <c r="AJ48" s="4"/>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:36">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -5228,233 +5378,243 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4">
-        <v>5</v>
-      </c>
-      <c r="L49" s="4">
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4">
+        <v>5</v>
+      </c>
+      <c r="N49" s="4">
         <v>9</v>
       </c>
-      <c r="M49" s="8">
-        <v>0</v>
-      </c>
-      <c r="N49" s="8">
+      <c r="O49" s="8">
+        <v>0</v>
+      </c>
+      <c r="P49" s="8">
         <v>180</v>
       </c>
-      <c r="O49" s="8">
-        <v>0</v>
-      </c>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4">
-        <v>1</v>
-      </c>
-      <c r="R49" s="4">
-        <v>5</v>
-      </c>
+      <c r="Q49" s="8">
+        <v>0</v>
+      </c>
+      <c r="R49" s="4"/>
       <c r="S49" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T49" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U49" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V49" s="4">
         <v>1</v>
       </c>
       <c r="W49" s="4">
+        <v>1</v>
+      </c>
+      <c r="X49" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="4">
         <v>825</v>
       </c>
-      <c r="X49" s="4">
+      <c r="Z49" s="4">
         <v>873.75</v>
       </c>
-      <c r="Y49" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z49" s="4">
+      <c r="AA49" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB49" s="4">
         <v>15</v>
       </c>
-      <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
       <c r="AF49" s="4"/>
       <c r="AG49" s="4"/>
       <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:36">
       <c r="A50" s="4"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K50" s="9">
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M50" s="9">
         <v>3</v>
       </c>
-      <c r="L50" s="9">
+      <c r="N50" s="9">
         <v>6</v>
       </c>
-      <c r="M50" s="8">
-        <v>0</v>
-      </c>
-      <c r="N50" s="8">
+      <c r="O50" s="8">
+        <v>0</v>
+      </c>
+      <c r="P50" s="8">
         <v>180</v>
       </c>
-      <c r="O50" s="8">
-        <v>0</v>
-      </c>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9">
-        <v>1</v>
-      </c>
-      <c r="R50" s="9">
+      <c r="Q50" s="8">
+        <v>0</v>
+      </c>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9">
+        <v>1</v>
+      </c>
+      <c r="T50" s="9">
         <v>10</v>
       </c>
-      <c r="S50" s="9">
+      <c r="U50" s="9">
         <v>10</v>
       </c>
-      <c r="T50" s="9">
-        <v>1</v>
-      </c>
-      <c r="U50" s="9">
-        <v>1</v>
-      </c>
       <c r="V50" s="9">
         <v>1</v>
       </c>
       <c r="W50" s="9">
+        <v>1</v>
+      </c>
+      <c r="X50" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="9">
         <v>10</v>
       </c>
-      <c r="X50" s="9">
+      <c r="Z50" s="9">
         <v>10</v>
       </c>
-      <c r="Y50" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
-      <c r="AB50" s="9">
+      <c r="AA50" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="9"/>
+      <c r="AC50" s="9"/>
+      <c r="AD50" s="9">
         <v>30</v>
       </c>
-      <c r="AC50" s="9">
+      <c r="AE50" s="9">
         <v>10000000</v>
       </c>
-      <c r="AD50" s="9">
+      <c r="AF50" s="9">
         <v>200</v>
       </c>
-      <c r="AE50" s="9">
+      <c r="AG50" s="9">
         <v>1.4</v>
       </c>
-      <c r="AF50" s="9">
+      <c r="AH50" s="9">
         <v>5000</v>
       </c>
-      <c r="AG50" s="9">
+      <c r="AI50" s="9">
         <v>1000000</v>
       </c>
-      <c r="AH50" s="9"/>
+      <c r="AJ50" s="9"/>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:36">
       <c r="A51" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B51" s="4">
         <v>9</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F51" s="4">
+        <v>1100</v>
+      </c>
+      <c r="G51" s="4">
+        <v>25</v>
+      </c>
+      <c r="H51" s="4">
         <v>30</v>
       </c>
-      <c r="G51" s="4">
+      <c r="I51" s="4">
         <v>45</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4">
-        <v>1</v>
-      </c>
-      <c r="L51" s="4">
+      <c r="J51" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4">
+        <v>1</v>
+      </c>
+      <c r="N51" s="4">
         <v>9</v>
       </c>
-      <c r="M51" s="8">
-        <v>0</v>
-      </c>
-      <c r="N51" s="8">
+      <c r="O51" s="8">
+        <v>0</v>
+      </c>
+      <c r="P51" s="8">
         <v>180</v>
       </c>
-      <c r="O51" s="8">
-        <v>0</v>
-      </c>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4">
-        <v>1</v>
-      </c>
-      <c r="R51" s="4">
+      <c r="Q51" s="8">
+        <v>0</v>
+      </c>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4">
+        <v>1</v>
+      </c>
+      <c r="T51" s="4">
         <v>2</v>
       </c>
-      <c r="S51" s="4">
+      <c r="U51" s="4">
         <v>2</v>
       </c>
-      <c r="T51" s="4">
-        <v>1</v>
-      </c>
-      <c r="U51" s="4">
-        <v>1</v>
-      </c>
       <c r="V51" s="4">
         <v>1</v>
       </c>
       <c r="W51" s="4">
+        <v>1</v>
+      </c>
+      <c r="X51" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="4">
         <v>862.5</v>
       </c>
-      <c r="X51" s="4">
+      <c r="Z51" s="4">
         <v>900</v>
       </c>
-      <c r="Y51" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z51" s="4">
+      <c r="AA51" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB51" s="4">
         <v>10</v>
       </c>
-      <c r="AA51" s="4"/>
-      <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
       <c r="AE51" s="4"/>
       <c r="AF51" s="4"/>
       <c r="AG51" s="4"/>
       <c r="AH51" s="4"/>
+      <c r="AI51" s="4"/>
+      <c r="AJ51" s="4"/>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:36">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -5462,69 +5622,71 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4">
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4">
         <v>2</v>
       </c>
-      <c r="L52" s="4">
+      <c r="N52" s="4">
         <v>8</v>
       </c>
-      <c r="M52" s="8">
-        <v>0</v>
-      </c>
-      <c r="N52" s="8">
+      <c r="O52" s="8">
+        <v>0</v>
+      </c>
+      <c r="P52" s="8">
         <v>180</v>
       </c>
-      <c r="O52" s="8">
-        <v>0</v>
-      </c>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4">
-        <v>1</v>
-      </c>
-      <c r="R52" s="4">
+      <c r="Q52" s="8">
+        <v>0</v>
+      </c>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4">
+        <v>1</v>
+      </c>
+      <c r="T52" s="4">
         <v>1.5</v>
       </c>
-      <c r="S52" s="4">
+      <c r="U52" s="4">
         <v>1.5</v>
       </c>
-      <c r="T52" s="4">
-        <v>1</v>
-      </c>
-      <c r="U52" s="4">
-        <v>1</v>
-      </c>
       <c r="V52" s="4">
         <v>1</v>
       </c>
       <c r="W52" s="4">
+        <v>1</v>
+      </c>
+      <c r="X52" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="4">
         <v>900</v>
       </c>
-      <c r="X52" s="4">
+      <c r="Z52" s="4">
         <v>937.5</v>
       </c>
-      <c r="Y52" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="4">
+      <c r="AA52" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="4">
         <v>13</v>
       </c>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
       <c r="AE52" s="4"/>
       <c r="AF52" s="4"/>
       <c r="AG52" s="4"/>
       <c r="AH52" s="4"/>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:36">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -5532,69 +5694,71 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4">
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4">
         <v>3</v>
       </c>
-      <c r="L53" s="4">
+      <c r="N53" s="4">
         <v>7</v>
       </c>
-      <c r="M53" s="8">
-        <v>0</v>
-      </c>
-      <c r="N53" s="8">
+      <c r="O53" s="8">
+        <v>0</v>
+      </c>
+      <c r="P53" s="8">
         <v>180</v>
       </c>
-      <c r="O53" s="8">
-        <v>0</v>
-      </c>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4">
-        <v>1</v>
-      </c>
-      <c r="R53" s="4">
+      <c r="Q53" s="8">
+        <v>0</v>
+      </c>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4">
+        <v>1</v>
+      </c>
+      <c r="T53" s="4">
         <v>2</v>
       </c>
-      <c r="S53" s="4">
+      <c r="U53" s="4">
         <v>2</v>
       </c>
-      <c r="T53" s="4">
-        <v>1</v>
-      </c>
-      <c r="U53" s="4">
-        <v>1</v>
-      </c>
       <c r="V53" s="4">
         <v>1</v>
       </c>
       <c r="W53" s="4">
+        <v>1</v>
+      </c>
+      <c r="X53" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="4">
         <v>937.5</v>
       </c>
-      <c r="X53" s="4">
+      <c r="Z53" s="4">
         <v>975</v>
       </c>
-      <c r="Y53" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z53" s="4">
+      <c r="AA53" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB53" s="4">
         <v>14</v>
       </c>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
       <c r="AF53" s="4"/>
       <c r="AG53" s="4"/>
       <c r="AH53" s="4"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4"/>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:36">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -5602,189 +5766,189 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4">
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4">
         <v>4</v>
       </c>
-      <c r="L54" s="4">
+      <c r="N54" s="4">
         <v>8</v>
       </c>
-      <c r="M54" s="8">
-        <v>0</v>
-      </c>
-      <c r="N54" s="8">
+      <c r="O54" s="8">
+        <v>0</v>
+      </c>
+      <c r="P54" s="8">
         <v>180</v>
       </c>
-      <c r="O54" s="8">
-        <v>0</v>
-      </c>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4">
-        <v>1</v>
-      </c>
-      <c r="R54" s="4">
-        <v>5</v>
-      </c>
+      <c r="Q54" s="8">
+        <v>0</v>
+      </c>
+      <c r="R54" s="4"/>
       <c r="S54" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T54" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U54" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V54" s="4">
         <v>1</v>
       </c>
       <c r="W54" s="4">
+        <v>1</v>
+      </c>
+      <c r="X54" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="4">
         <v>862.5</v>
       </c>
-      <c r="X54" s="4">
+      <c r="Z54" s="4">
         <v>900</v>
       </c>
-      <c r="Y54" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z54" s="4">
+      <c r="AA54" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB54" s="4">
         <v>15</v>
       </c>
-      <c r="AA54" s="4"/>
-      <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
       <c r="AF54" s="4"/>
       <c r="AG54" s="4"/>
       <c r="AH54" s="4"/>
+      <c r="AI54" s="4"/>
+      <c r="AJ54" s="4"/>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:36">
       <c r="A55" s="4"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K55" s="4">
-        <v>5</v>
-      </c>
-      <c r="L55" s="4">
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M55" s="4">
+        <v>5</v>
+      </c>
+      <c r="N55" s="4">
         <v>9</v>
       </c>
-      <c r="M55" s="8">
-        <v>0</v>
-      </c>
-      <c r="N55" s="8">
+      <c r="O55" s="8">
+        <v>0</v>
+      </c>
+      <c r="P55" s="8">
         <v>180</v>
       </c>
-      <c r="O55" s="8">
-        <v>0</v>
-      </c>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9">
-        <v>1</v>
-      </c>
-      <c r="R55" s="9">
+      <c r="Q55" s="8">
+        <v>0</v>
+      </c>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9">
+        <v>1</v>
+      </c>
+      <c r="T55" s="9">
         <v>10</v>
       </c>
-      <c r="S55" s="9">
+      <c r="U55" s="9">
         <v>10</v>
       </c>
-      <c r="T55" s="9">
-        <v>1</v>
-      </c>
-      <c r="U55" s="9">
-        <v>1</v>
-      </c>
       <c r="V55" s="9">
         <v>1</v>
       </c>
       <c r="W55" s="9">
+        <v>1</v>
+      </c>
+      <c r="X55" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="9">
         <v>10</v>
       </c>
-      <c r="X55" s="9">
+      <c r="Z55" s="9">
         <v>10</v>
       </c>
-      <c r="Y55" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z55" s="9"/>
-      <c r="AA55" s="9"/>
-      <c r="AB55" s="9">
+      <c r="AA55" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="9"/>
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="9">
         <v>25</v>
       </c>
-      <c r="AC55" s="9">
+      <c r="AE55" s="9">
         <v>10000000</v>
       </c>
-      <c r="AD55" s="9">
+      <c r="AF55" s="9">
         <v>200</v>
       </c>
-      <c r="AE55" s="9">
+      <c r="AG55" s="9">
         <v>1.4</v>
       </c>
-      <c r="AF55" s="9">
+      <c r="AH55" s="9">
         <v>5000</v>
       </c>
-      <c r="AG55" s="9">
+      <c r="AI55" s="9">
         <v>1000000</v>
       </c>
-      <c r="AH55" s="9"/>
+      <c r="AJ55" s="9"/>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:36">
       <c r="A56" s="4"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I56" s="9" t="s">
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="M56" s="9">
+        <v>3</v>
+      </c>
+      <c r="N56" s="9">
+        <v>6</v>
+      </c>
+      <c r="O56" s="8">
+        <v>0</v>
+      </c>
+      <c r="P56" s="8">
         <v>180</v>
       </c>
-      <c r="J56" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K56" s="9">
-        <v>3</v>
-      </c>
-      <c r="L56" s="9">
-        <v>6</v>
-      </c>
-      <c r="M56" s="8">
-        <v>0</v>
-      </c>
-      <c r="N56" s="8">
-        <v>180</v>
-      </c>
-      <c r="O56" s="8">
-        <v>0</v>
-      </c>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9">
-        <v>1</v>
-      </c>
-      <c r="R56" s="9">
-        <v>1</v>
-      </c>
+      <c r="Q56" s="8">
+        <v>0</v>
+      </c>
+      <c r="R56" s="9"/>
       <c r="S56" s="9">
         <v>1</v>
       </c>
@@ -5798,65 +5962,67 @@
         <v>1</v>
       </c>
       <c r="W56" s="9">
+        <v>1</v>
+      </c>
+      <c r="X56" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="9">
         <v>100</v>
       </c>
-      <c r="X56" s="9">
+      <c r="Z56" s="9">
         <v>500</v>
       </c>
-      <c r="Y56" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z56" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA56" s="9"/>
-      <c r="AB56" s="9"/>
+      <c r="AA56" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="9">
+        <v>1</v>
+      </c>
       <c r="AC56" s="9"/>
       <c r="AD56" s="9"/>
       <c r="AE56" s="9"/>
       <c r="AF56" s="9"/>
       <c r="AG56" s="9"/>
       <c r="AH56" s="9"/>
+      <c r="AI56" s="9"/>
+      <c r="AJ56" s="9"/>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:36">
       <c r="A57" s="4"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K57" s="9">
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="M57" s="9">
         <v>4</v>
       </c>
-      <c r="L57" s="9">
+      <c r="N57" s="9">
         <v>6</v>
       </c>
-      <c r="M57" s="8">
-        <v>0</v>
-      </c>
-      <c r="N57" s="8">
+      <c r="O57" s="8">
+        <v>0</v>
+      </c>
+      <c r="P57" s="8">
         <v>180</v>
       </c>
-      <c r="O57" s="8">
-        <v>0</v>
-      </c>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9">
-        <v>1</v>
-      </c>
-      <c r="R57" s="9">
-        <v>1</v>
-      </c>
+      <c r="Q57" s="8">
+        <v>0</v>
+      </c>
+      <c r="R57" s="9"/>
       <c r="S57" s="9">
         <v>1</v>
       </c>
@@ -5870,25 +6036,31 @@
         <v>1</v>
       </c>
       <c r="W57" s="9">
+        <v>1</v>
+      </c>
+      <c r="X57" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="9">
         <v>100</v>
       </c>
-      <c r="X57" s="9">
+      <c r="Z57" s="9">
         <v>500</v>
       </c>
-      <c r="Y57" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z57" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA57" s="9"/>
-      <c r="AB57" s="9"/>
+      <c r="AA57" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="9">
+        <v>1</v>
+      </c>
       <c r="AC57" s="9"/>
       <c r="AD57" s="9"/>
       <c r="AE57" s="9"/>
       <c r="AF57" s="9"/>
       <c r="AG57" s="9"/>
       <c r="AH57" s="9"/>
+      <c r="AI57" s="9"/>
+      <c r="AJ57" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5899,31 +6071,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="11.1666666666667" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="10.4166666666667" customWidth="1"/>
     <col min="7" max="7" width="10.8333333333333" customWidth="1"/>
-    <col min="8" max="8" width="15.3333333333333" customWidth="1"/>
-    <col min="10" max="11" width="10.8333333333333" customWidth="1"/>
-    <col min="12" max="12" width="10.6666666666667" customWidth="1"/>
-    <col min="13" max="14" width="9" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="15.9166666666667" customWidth="1"/>
+    <col min="10" max="10" width="15.3333333333333" customWidth="1"/>
+    <col min="12" max="13" width="10.8333333333333" customWidth="1"/>
+    <col min="14" max="14" width="10.6666666666667" customWidth="1"/>
+    <col min="15" max="16" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28" spans="1:35">
+    <row r="1" s="1" customFormat="1" ht="28" spans="1:37">
       <c r="A1" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -5946,18 +6120,18 @@
       <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>12</v>
@@ -5974,10 +6148,10 @@
       <c r="S1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="V1" s="3" t="s">
@@ -6022,327 +6196,359 @@
       <c r="AI1" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="AJ1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" ht="28" spans="1:35">
+    <row r="2" ht="28" spans="1:37">
       <c r="A2" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" ht="15.5" spans="1:37">
+      <c r="A3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="M3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" ht="15.5" spans="1:37">
+      <c r="A4" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="6" t="s">
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>65</v>
+      <c r="O4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="3" ht="15.5" spans="1:35">
-      <c r="A3" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="K3" t="s">
-        <v>191</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>192</v>
-      </c>
+    <row r="16" spans="8:9">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
-    <row r="4" ht="15.5" spans="1:35">
-      <c r="A4" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>41</v>
-      </c>
+    <row r="17" spans="8:9">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/code/excels/building/building_round_board.xlsx
+++ b/code/excels/building/building_round_board.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="205">
   <si>
     <t>回合编号</t>
   </si>
@@ -242,37 +242,37 @@
     <t>basic10001</t>
   </si>
   <si>
-    <t>wave_1</t>
+    <t>building_enemy_1</t>
   </si>
   <si>
     <t>basic10002</t>
   </si>
   <si>
-    <t>wave_2</t>
+    <t>building_enemy_2</t>
   </si>
   <si>
     <t>basic10003</t>
   </si>
   <si>
-    <t>wave_3</t>
+    <t>building_enemy_3</t>
   </si>
   <si>
     <t>basic10004</t>
   </si>
   <si>
-    <t>wave_4</t>
+    <t>building_enemy_4</t>
   </si>
   <si>
     <t>basic10005</t>
   </si>
   <si>
-    <t>wave_5</t>
+    <t>building_enemy_5</t>
   </si>
   <si>
     <t>basic10006</t>
   </si>
   <si>
-    <t>wave_gold</t>
+    <t>building_enemy_6</t>
   </si>
   <si>
     <t>宝箱</t>
@@ -284,37 +284,37 @@
     <t>basic10007</t>
   </si>
   <si>
-    <t>wave_6</t>
+    <t>building_enemy_7</t>
   </si>
   <si>
     <t>basic10008</t>
   </si>
   <si>
-    <t>wave_7</t>
+    <t>building_enemy_8</t>
   </si>
   <si>
     <t>basic10009</t>
   </si>
   <si>
-    <t>wave_8</t>
+    <t>building_enemy_9</t>
   </si>
   <si>
     <t>basic10010</t>
   </si>
   <si>
-    <t>wave_9</t>
+    <t>building_enemy_10</t>
   </si>
   <si>
     <t>basic10011</t>
   </si>
   <si>
-    <t>wave_10</t>
+    <t>building_enemy_11</t>
   </si>
   <si>
     <t>basic10012</t>
   </si>
   <si>
-    <t>wave_goldx3</t>
+    <t>building_enemy_12</t>
   </si>
   <si>
     <t>n1_4</t>
@@ -323,145 +323,154 @@
     <t>basic10013</t>
   </si>
   <si>
-    <t>wave_11</t>
+    <t>building_enemy_13</t>
   </si>
   <si>
     <t>basic10014</t>
   </si>
   <si>
-    <t>wave_12</t>
+    <t>building_enemy_14</t>
   </si>
   <si>
     <t>basic10015</t>
   </si>
   <si>
-    <t>wave_13</t>
+    <t>building_enemy_15</t>
   </si>
   <si>
     <t>basic10016</t>
   </si>
   <si>
-    <t>wave_14</t>
+    <t>building_enemy_16</t>
   </si>
   <si>
     <t>basic10017</t>
   </si>
   <si>
-    <t>wave_15</t>
+    <t>building_enemy_17</t>
   </si>
   <si>
     <t>basic10018</t>
   </si>
   <si>
+    <t>building_enemy_18</t>
+  </si>
+  <si>
     <t>n1_5</t>
   </si>
   <si>
     <t>basic10019</t>
   </si>
   <si>
-    <t>wave_16</t>
+    <t>building_enemy_19</t>
   </si>
   <si>
     <t>basic10020</t>
   </si>
   <si>
-    <t>wave_17</t>
+    <t>building_enemy_20</t>
   </si>
   <si>
     <t>basic10021</t>
   </si>
   <si>
-    <t>wave_18</t>
+    <t>building_enemy_21</t>
   </si>
   <si>
     <t>basic10022</t>
   </si>
   <si>
-    <t>wave_19</t>
+    <t>building_enemy_22</t>
   </si>
   <si>
     <t>basic10023</t>
   </si>
   <si>
-    <t>wave_20</t>
+    <t>building_enemy_23</t>
   </si>
   <si>
     <t>basic10024</t>
   </si>
   <si>
+    <t>building_enemy_24</t>
+  </si>
+  <si>
     <t>n1_6</t>
   </si>
   <si>
     <t>basic10025</t>
   </si>
   <si>
-    <t>wave_21</t>
+    <t>building_enemy_boss_1</t>
   </si>
   <si>
     <t>basic10026</t>
   </si>
   <si>
-    <t>wave_22</t>
+    <t>building_enemy_boss_2</t>
   </si>
   <si>
     <t>basic10027</t>
   </si>
   <si>
-    <t>wave_23</t>
+    <t>building_enemy_boss_3</t>
   </si>
   <si>
     <t>basic10028</t>
   </si>
   <si>
-    <t>wave_24</t>
+    <t>building_enemy_boss_4</t>
   </si>
   <si>
     <t>basic10029</t>
   </si>
   <si>
-    <t>wave_25</t>
+    <t>building_enemy_boss_5</t>
   </si>
   <si>
     <t>basic10030</t>
   </si>
   <si>
+    <t>building_enemy_boss_6</t>
+  </si>
+  <si>
     <t>n1_7</t>
   </si>
   <si>
     <t>basic10031</t>
   </si>
   <si>
-    <t>wave_26</t>
+    <t>building_enemy_boss_7</t>
   </si>
   <si>
     <t>basic10032</t>
   </si>
   <si>
-    <t>wave_27</t>
+    <t>building_enemy_boss_8</t>
   </si>
   <si>
     <t>basic10033</t>
   </si>
   <si>
-    <t>wave_28</t>
+    <t>building_enemy_maintask_1_2</t>
   </si>
   <si>
     <t>basic10034</t>
   </si>
   <si>
-    <t>wave_29</t>
+    <t>building_enemy_maintask_1_3</t>
   </si>
   <si>
     <t>basic10035</t>
   </si>
   <si>
-    <t>wave_30</t>
+    <t>building_enemy_maintask_1_4_1</t>
   </si>
   <si>
     <t>basic10036</t>
   </si>
   <si>
-    <t>wave_phantom_roshan</t>
+    <t>building_enemy_maintask_1_4_2</t>
   </si>
   <si>
     <t>小BOSS</t>
@@ -473,103 +482,112 @@
     <t>basic10037</t>
   </si>
   <si>
-    <t>wave_31</t>
+    <t>building_enemy_maintask_1_4_3</t>
   </si>
   <si>
     <t>basic10038</t>
   </si>
   <si>
-    <t>wave_32</t>
+    <t>building_enemy_maintask_1_5_1</t>
   </si>
   <si>
     <t>basic10039</t>
   </si>
   <si>
-    <t>wave_33</t>
+    <t>building_enemy_maintask_1_5_2</t>
   </si>
   <si>
     <t>basic10040</t>
   </si>
   <si>
-    <t>wave_34</t>
+    <t>building_enemy_maintask_1_6</t>
   </si>
   <si>
     <t>basic10041</t>
   </si>
   <si>
-    <t>wave_35</t>
+    <t>building_enemy_maintask_1_7</t>
   </si>
   <si>
     <t>basic10042</t>
   </si>
   <si>
+    <t>building_enemy_maintask_1_8</t>
+  </si>
+  <si>
     <t>n1_9</t>
   </si>
   <si>
     <t>basic10043</t>
   </si>
   <si>
-    <t>wave_36</t>
+    <t>building_enemy_maintask_1_9</t>
   </si>
   <si>
     <t>basic10044</t>
   </si>
   <si>
-    <t>wave_37</t>
+    <t>building_enemy_maintask_2_1</t>
   </si>
   <si>
     <t>basic10045</t>
   </si>
   <si>
-    <t>wave_38</t>
+    <t>building_enemy_maintask_2_2</t>
   </si>
   <si>
     <t>basic10046</t>
   </si>
   <si>
-    <t>wave_43</t>
+    <t>building_enemy_maintask_2_3</t>
   </si>
   <si>
     <t>basic10047</t>
   </si>
   <si>
-    <t>wave_44</t>
+    <t>building_enemy_maintask_2_4</t>
   </si>
   <si>
     <t>basic10048</t>
   </si>
   <si>
+    <t>building_enemy_maintask_2_5</t>
+  </si>
+  <si>
     <t>basic10049</t>
   </si>
   <si>
-    <t>wave_41</t>
+    <t>building_enemy_maintask_2_6</t>
   </si>
   <si>
     <t>basic10050</t>
   </si>
   <si>
-    <t>wave_42</t>
+    <t>building_enemy_maintask_2_7</t>
   </si>
   <si>
     <t>basic10051</t>
   </si>
   <si>
-    <t>wave_39</t>
+    <t>building_enemy_maintask_2_8</t>
   </si>
   <si>
     <t>basic10052</t>
   </si>
   <si>
-    <t>wave_40</t>
+    <t>building_enemy_maintask_2_9</t>
   </si>
   <si>
     <t>basic10053</t>
   </si>
   <si>
+    <t>building_enemy_maintask_3_1</t>
+  </si>
+  <si>
     <t>basic10054</t>
   </si>
   <si>
-    <t>wave_55</t>
+    <t>building_enemy_maintask_3_2</t>
   </si>
   <si>
     <t>BOSS</t>
@@ -578,7 +596,7 @@
     <t>basic10055</t>
   </si>
   <si>
-    <t>candy_boss</t>
+    <t>building_enemy_maintask_4_1</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -624,7 +642,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,46 +665,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,11 +692,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -715,39 +707,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,15 +724,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,6 +803,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,7 +830,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,7 +890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,7 +902,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,115 +962,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,19 +974,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,6 +990,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -997,15 +1021,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1025,6 +1040,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1035,21 +1083,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,15 +1113,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1103,10 +1127,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1115,137 +1139,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1269,8 +1293,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1591,10 +1621,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ57"/>
+  <dimension ref="A1:AJ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1608,7 +1638,7 @@
     <col min="7" max="7" width="15.9166666666667" customWidth="1"/>
     <col min="8" max="8" width="15.3333333333333" customWidth="1"/>
     <col min="9" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="20.5833333333333" customWidth="1"/>
+    <col min="11" max="11" width="24.25" style="9" customWidth="1"/>
     <col min="12" max="12" width="8.75" customWidth="1"/>
     <col min="13" max="13" width="11.3333333333333" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
@@ -1877,7 +1907,7 @@
       <c r="J3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L3" s="4"/>
@@ -1949,7 +1979,7 @@
       <c r="J4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="11" t="s">
         <v>77</v>
       </c>
       <c r="L4" s="4"/>
@@ -2021,7 +2051,7 @@
       <c r="J5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="11" t="s">
         <v>79</v>
       </c>
       <c r="L5" s="4"/>
@@ -2093,7 +2123,7 @@
       <c r="J6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="11" t="s">
         <v>81</v>
       </c>
       <c r="L6" s="4"/>
@@ -2165,7 +2195,7 @@
       <c r="J7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="11" t="s">
         <v>83</v>
       </c>
       <c r="L7" s="4"/>
@@ -2226,27 +2256,27 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="4"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="10">
         <v>3</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="10">
         <v>6</v>
       </c>
       <c r="O8" s="8">
@@ -2258,53 +2288,53 @@
       <c r="Q8" s="8">
         <v>0</v>
       </c>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9">
-        <v>1</v>
-      </c>
-      <c r="T8" s="9">
+      <c r="R8" s="10"/>
+      <c r="S8" s="10">
+        <v>1</v>
+      </c>
+      <c r="T8" s="10">
         <v>5</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="10">
         <v>5</v>
       </c>
-      <c r="V8" s="9">
-        <v>1</v>
-      </c>
-      <c r="W8" s="9">
-        <v>1</v>
-      </c>
-      <c r="X8" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="9">
+      <c r="V8" s="10">
+        <v>1</v>
+      </c>
+      <c r="W8" s="10">
+        <v>1</v>
+      </c>
+      <c r="X8" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="10">
         <v>10</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="Z8" s="10">
         <v>10</v>
       </c>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9">
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10">
         <v>30</v>
       </c>
-      <c r="AE8" s="9">
+      <c r="AE8" s="10">
         <v>50000</v>
       </c>
-      <c r="AF8" s="9">
+      <c r="AF8" s="10">
         <v>5</v>
       </c>
-      <c r="AG8" s="9">
+      <c r="AG8" s="10">
         <v>1.2</v>
       </c>
-      <c r="AH8" s="9">
+      <c r="AH8" s="10">
         <v>100</v>
       </c>
-      <c r="AI8" s="9">
+      <c r="AI8" s="10">
         <v>1000</v>
       </c>
-      <c r="AJ8" s="9"/>
+      <c r="AJ8" s="10"/>
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="4" t="s">
@@ -2337,7 +2367,7 @@
       <c r="J9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="11" t="s">
         <v>89</v>
       </c>
       <c r="L9" s="4"/>
@@ -2409,7 +2439,7 @@
       <c r="J10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="11" t="s">
         <v>91</v>
       </c>
       <c r="L10" s="4"/>
@@ -2481,7 +2511,7 @@
       <c r="J11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="11" t="s">
         <v>93</v>
       </c>
       <c r="L11" s="4"/>
@@ -2553,7 +2583,7 @@
       <c r="J12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="11" t="s">
         <v>95</v>
       </c>
       <c r="L12" s="4"/>
@@ -2625,7 +2655,7 @@
       <c r="J13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="11" t="s">
         <v>97</v>
       </c>
       <c r="L13" s="4"/>
@@ -2686,27 +2716,27 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="4"/>
-      <c r="B14" s="9"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="10">
         <v>3</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="10">
         <v>6</v>
       </c>
       <c r="O14" s="8">
@@ -2718,53 +2748,53 @@
       <c r="Q14" s="8">
         <v>0</v>
       </c>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9">
-        <v>1</v>
-      </c>
-      <c r="T14" s="9">
+      <c r="R14" s="10"/>
+      <c r="S14" s="10">
+        <v>1</v>
+      </c>
+      <c r="T14" s="10">
         <v>5</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="10">
         <v>5</v>
       </c>
-      <c r="V14" s="9">
-        <v>1</v>
-      </c>
-      <c r="W14" s="9">
-        <v>1</v>
-      </c>
-      <c r="X14" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="9">
+      <c r="V14" s="10">
+        <v>1</v>
+      </c>
+      <c r="W14" s="10">
+        <v>1</v>
+      </c>
+      <c r="X14" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="10">
         <v>10</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="Z14" s="10">
         <v>10</v>
       </c>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9">
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10">
         <v>25</v>
       </c>
-      <c r="AE14" s="9">
+      <c r="AE14" s="10">
         <v>500000</v>
       </c>
-      <c r="AF14" s="9">
+      <c r="AF14" s="10">
         <v>10</v>
       </c>
-      <c r="AG14" s="9">
+      <c r="AG14" s="10">
         <v>1.4</v>
       </c>
-      <c r="AH14" s="9">
+      <c r="AH14" s="10">
         <v>10000</v>
       </c>
-      <c r="AI14" s="9">
+      <c r="AI14" s="10">
         <v>1000000</v>
       </c>
-      <c r="AJ14" s="9"/>
+      <c r="AJ14" s="10"/>
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="4" t="s">
@@ -2797,7 +2827,7 @@
       <c r="J15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="11" t="s">
         <v>102</v>
       </c>
       <c r="L15" s="4"/>
@@ -2869,7 +2899,7 @@
       <c r="J16" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="11" t="s">
         <v>104</v>
       </c>
       <c r="L16" s="4"/>
@@ -2941,7 +2971,7 @@
       <c r="J17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="11" t="s">
         <v>106</v>
       </c>
       <c r="L17" s="4"/>
@@ -3013,7 +3043,7 @@
       <c r="J18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="11" t="s">
         <v>108</v>
       </c>
       <c r="L18" s="4"/>
@@ -3085,7 +3115,7 @@
       <c r="J19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="11" t="s">
         <v>110</v>
       </c>
       <c r="L19" s="4"/>
@@ -3146,27 +3176,27 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="4"/>
-      <c r="B20" s="9"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="9"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L20" s="9" t="s">
+      <c r="K20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="10">
         <v>3</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="10">
         <v>6</v>
       </c>
       <c r="O20" s="8">
@@ -3178,55 +3208,55 @@
       <c r="Q20" s="8">
         <v>0</v>
       </c>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9">
-        <v>1</v>
-      </c>
-      <c r="T20" s="9">
+      <c r="R20" s="10"/>
+      <c r="S20" s="10">
+        <v>1</v>
+      </c>
+      <c r="T20" s="10">
         <v>10</v>
       </c>
-      <c r="U20" s="9">
+      <c r="U20" s="10">
         <v>10</v>
       </c>
-      <c r="V20" s="9">
-        <v>1</v>
-      </c>
-      <c r="W20" s="9">
-        <v>1</v>
-      </c>
-      <c r="X20" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="9">
+      <c r="V20" s="10">
+        <v>1</v>
+      </c>
+      <c r="W20" s="10">
+        <v>1</v>
+      </c>
+      <c r="X20" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="10">
         <v>10</v>
       </c>
-      <c r="Z20" s="9">
+      <c r="Z20" s="10">
         <v>10</v>
       </c>
-      <c r="AA20" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9">
+      <c r="AA20" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10">
         <v>30</v>
       </c>
-      <c r="AE20" s="9">
+      <c r="AE20" s="10">
         <v>1000000</v>
       </c>
-      <c r="AF20" s="9">
+      <c r="AF20" s="10">
         <v>20</v>
       </c>
-      <c r="AG20" s="9">
+      <c r="AG20" s="10">
         <v>1.4</v>
       </c>
-      <c r="AH20" s="9">
+      <c r="AH20" s="10">
         <v>10000</v>
       </c>
-      <c r="AI20" s="9">
+      <c r="AI20" s="10">
         <v>1000000</v>
       </c>
-      <c r="AJ20" s="9"/>
+      <c r="AJ20" s="10"/>
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="4" t="s">
@@ -3236,7 +3266,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>72</v>
@@ -3257,10 +3287,10 @@
         <v>45</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21" s="4" t="s">
         <v>114</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4">
@@ -3329,10 +3359,10 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K22" s="4" t="s">
         <v>116</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4">
@@ -3401,10 +3431,10 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K23" s="4" t="s">
         <v>118</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4">
@@ -3473,10 +3503,10 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K24" s="4" t="s">
         <v>120</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4">
@@ -3545,10 +3575,10 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K25" s="4" t="s">
         <v>122</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4">
@@ -3608,27 +3638,27 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="4"/>
-      <c r="B26" s="9"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="9"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L26" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="10">
         <v>3</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="10">
         <v>6</v>
       </c>
       <c r="O26" s="8">
@@ -3640,65 +3670,65 @@
       <c r="Q26" s="8">
         <v>0</v>
       </c>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9">
-        <v>1</v>
-      </c>
-      <c r="T26" s="9">
+      <c r="R26" s="10"/>
+      <c r="S26" s="10">
+        <v>1</v>
+      </c>
+      <c r="T26" s="10">
         <v>10</v>
       </c>
-      <c r="U26" s="9">
+      <c r="U26" s="10">
         <v>10</v>
       </c>
-      <c r="V26" s="9">
-        <v>1</v>
-      </c>
-      <c r="W26" s="9">
-        <v>1</v>
-      </c>
-      <c r="X26" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="9">
+      <c r="V26" s="10">
+        <v>1</v>
+      </c>
+      <c r="W26" s="10">
+        <v>1</v>
+      </c>
+      <c r="X26" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="10">
         <v>10</v>
       </c>
-      <c r="Z26" s="9">
+      <c r="Z26" s="10">
         <v>10</v>
       </c>
-      <c r="AA26" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9">
+      <c r="AA26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10">
         <v>25</v>
       </c>
-      <c r="AE26" s="9">
+      <c r="AE26" s="10">
         <v>10000000</v>
       </c>
-      <c r="AF26" s="9">
+      <c r="AF26" s="10">
         <v>200</v>
       </c>
-      <c r="AG26" s="9">
+      <c r="AG26" s="10">
         <v>1.4</v>
       </c>
-      <c r="AH26" s="9">
+      <c r="AH26" s="10">
         <v>10000</v>
       </c>
-      <c r="AI26" s="9">
+      <c r="AI26" s="10">
         <v>1000000</v>
       </c>
-      <c r="AJ26" s="9"/>
+      <c r="AJ26" s="10"/>
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B27" s="4">
         <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>72</v>
@@ -3719,10 +3749,10 @@
         <v>45</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4">
@@ -3791,10 +3821,10 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4">
@@ -3863,10 +3893,10 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4">
@@ -3935,10 +3965,10 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4">
@@ -4007,10 +4037,10 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4">
@@ -4070,27 +4100,27 @@
     </row>
     <row r="32" spans="1:36">
       <c r="A32" s="4"/>
-      <c r="B32" s="9"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="9"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="9"/>
+      <c r="I32" s="10"/>
       <c r="J32" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L32" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="L32" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="10">
         <v>3</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32" s="10">
         <v>6</v>
       </c>
       <c r="O32" s="8">
@@ -4102,65 +4132,65 @@
       <c r="Q32" s="8">
         <v>0</v>
       </c>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9">
-        <v>1</v>
-      </c>
-      <c r="T32" s="9">
+      <c r="R32" s="10"/>
+      <c r="S32" s="10">
+        <v>1</v>
+      </c>
+      <c r="T32" s="10">
         <v>10</v>
       </c>
-      <c r="U32" s="9">
+      <c r="U32" s="10">
         <v>10</v>
       </c>
-      <c r="V32" s="9">
-        <v>1</v>
-      </c>
-      <c r="W32" s="9">
-        <v>1</v>
-      </c>
-      <c r="X32" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="9">
+      <c r="V32" s="10">
+        <v>1</v>
+      </c>
+      <c r="W32" s="10">
+        <v>1</v>
+      </c>
+      <c r="X32" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="10">
         <v>10</v>
       </c>
-      <c r="Z32" s="9">
+      <c r="Z32" s="10">
         <v>10</v>
       </c>
-      <c r="AA32" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9">
+      <c r="AA32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10">
         <v>30</v>
       </c>
-      <c r="AE32" s="9">
+      <c r="AE32" s="10">
         <v>10000000</v>
       </c>
-      <c r="AF32" s="9">
+      <c r="AF32" s="10">
         <v>200</v>
       </c>
-      <c r="AG32" s="9">
+      <c r="AG32" s="10">
         <v>1.4</v>
       </c>
-      <c r="AH32" s="9">
+      <c r="AH32" s="10">
         <v>10000</v>
       </c>
-      <c r="AI32" s="9">
+      <c r="AI32" s="10">
         <v>1000000</v>
       </c>
-      <c r="AJ32" s="9"/>
+      <c r="AJ32" s="10"/>
     </row>
     <row r="33" spans="1:36">
       <c r="A33" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B33" s="4">
         <v>6</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>72</v>
@@ -4181,10 +4211,10 @@
         <v>50</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4">
@@ -4253,10 +4283,10 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4">
@@ -4325,10 +4355,10 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4">
@@ -4397,10 +4427,10 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4">
@@ -4469,10 +4499,10 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4">
@@ -4532,27 +4562,27 @@
     </row>
     <row r="38" spans="1:36">
       <c r="A38" s="4"/>
-      <c r="B38" s="9"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="9"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="9"/>
+      <c r="I38" s="10"/>
       <c r="J38" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="M38" s="9">
+        <v>150</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="M38" s="10">
         <v>3</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N38" s="10">
         <v>6</v>
       </c>
       <c r="O38" s="8">
@@ -4564,53 +4594,53 @@
       <c r="Q38" s="8">
         <v>0</v>
       </c>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9">
-        <v>1</v>
-      </c>
-      <c r="T38" s="9">
+      <c r="R38" s="10"/>
+      <c r="S38" s="10">
+        <v>1</v>
+      </c>
+      <c r="T38" s="10">
         <v>2.5</v>
       </c>
-      <c r="U38" s="9">
+      <c r="U38" s="10">
         <v>2.5</v>
       </c>
-      <c r="V38" s="9">
-        <v>1</v>
-      </c>
-      <c r="W38" s="9">
-        <v>1</v>
-      </c>
-      <c r="X38" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="9">
+      <c r="V38" s="10">
+        <v>1</v>
+      </c>
+      <c r="W38" s="10">
+        <v>1</v>
+      </c>
+      <c r="X38" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="10">
         <v>10</v>
       </c>
-      <c r="Z38" s="9">
+      <c r="Z38" s="10">
         <v>10</v>
       </c>
-      <c r="AA38" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="9"/>
-      <c r="AJ38" s="9"/>
+      <c r="AA38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
     </row>
     <row r="39" spans="1:36">
       <c r="A39" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B39" s="4">
         <v>7</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>72</v>
@@ -4631,10 +4661,10 @@
         <v>20</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4">
@@ -4703,10 +4733,10 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4">
@@ -4775,10 +4805,10 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4">
@@ -4847,10 +4877,10 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4">
@@ -4919,10 +4949,10 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4">
@@ -4982,27 +5012,27 @@
     </row>
     <row r="44" spans="1:36">
       <c r="A44" s="4"/>
-      <c r="B44" s="9"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="9"/>
+      <c r="D44" s="10"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="9"/>
+      <c r="I44" s="10"/>
       <c r="J44" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L44" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="L44" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M44" s="10">
         <v>3</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N44" s="10">
         <v>6</v>
       </c>
       <c r="O44" s="8">
@@ -5014,65 +5044,65 @@
       <c r="Q44" s="8">
         <v>0</v>
       </c>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9">
-        <v>1</v>
-      </c>
-      <c r="T44" s="9">
+      <c r="R44" s="10"/>
+      <c r="S44" s="10">
+        <v>1</v>
+      </c>
+      <c r="T44" s="10">
         <v>10</v>
       </c>
-      <c r="U44" s="9">
+      <c r="U44" s="10">
         <v>10</v>
       </c>
-      <c r="V44" s="9">
-        <v>1</v>
-      </c>
-      <c r="W44" s="9">
-        <v>1</v>
-      </c>
-      <c r="X44" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="9">
+      <c r="V44" s="10">
+        <v>1</v>
+      </c>
+      <c r="W44" s="10">
+        <v>1</v>
+      </c>
+      <c r="X44" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="10">
         <v>10</v>
       </c>
-      <c r="Z44" s="9">
+      <c r="Z44" s="10">
         <v>10</v>
       </c>
-      <c r="AA44" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB44" s="9"/>
-      <c r="AC44" s="9"/>
-      <c r="AD44" s="9">
+      <c r="AA44" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10">
         <v>25</v>
       </c>
-      <c r="AE44" s="9">
+      <c r="AE44" s="10">
         <v>10000000</v>
       </c>
-      <c r="AF44" s="9">
+      <c r="AF44" s="10">
         <v>200</v>
       </c>
-      <c r="AG44" s="9">
+      <c r="AG44" s="10">
         <v>1.4</v>
       </c>
-      <c r="AH44" s="9">
+      <c r="AH44" s="10">
         <v>5000</v>
       </c>
-      <c r="AI44" s="9">
+      <c r="AI44" s="10">
         <v>1000000</v>
       </c>
-      <c r="AJ44" s="9"/>
+      <c r="AJ44" s="10"/>
     </row>
     <row r="45" spans="1:36">
       <c r="A45" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B45" s="4">
         <v>8</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>72</v>
@@ -5093,10 +5123,10 @@
         <v>45</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4">
@@ -5165,10 +5195,10 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4">
@@ -5237,10 +5267,10 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="L47" s="4"/>
       <c r="M47" s="4">
@@ -5309,10 +5339,10 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4">
@@ -5381,10 +5411,10 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4">
@@ -5444,27 +5474,27 @@
     </row>
     <row r="50" spans="1:36">
       <c r="A50" s="4"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="9"/>
+      <c r="I50" s="10"/>
       <c r="J50" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L50" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="L50" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M50" s="10">
         <v>3</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N50" s="10">
         <v>6</v>
       </c>
       <c r="O50" s="8">
@@ -5476,59 +5506,59 @@
       <c r="Q50" s="8">
         <v>0</v>
       </c>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9">
-        <v>1</v>
-      </c>
-      <c r="T50" s="9">
+      <c r="R50" s="10"/>
+      <c r="S50" s="10">
+        <v>1</v>
+      </c>
+      <c r="T50" s="10">
         <v>10</v>
       </c>
-      <c r="U50" s="9">
+      <c r="U50" s="10">
         <v>10</v>
       </c>
-      <c r="V50" s="9">
-        <v>1</v>
-      </c>
-      <c r="W50" s="9">
-        <v>1</v>
-      </c>
-      <c r="X50" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y50" s="9">
+      <c r="V50" s="10">
+        <v>1</v>
+      </c>
+      <c r="W50" s="10">
+        <v>1</v>
+      </c>
+      <c r="X50" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="10">
         <v>10</v>
       </c>
-      <c r="Z50" s="9">
+      <c r="Z50" s="10">
         <v>10</v>
       </c>
-      <c r="AA50" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB50" s="9"/>
-      <c r="AC50" s="9"/>
-      <c r="AD50" s="9">
+      <c r="AA50" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10">
         <v>30</v>
       </c>
-      <c r="AE50" s="9">
+      <c r="AE50" s="10">
         <v>10000000</v>
       </c>
-      <c r="AF50" s="9">
+      <c r="AF50" s="10">
         <v>200</v>
       </c>
-      <c r="AG50" s="9">
+      <c r="AG50" s="10">
         <v>1.4</v>
       </c>
-      <c r="AH50" s="9">
+      <c r="AH50" s="10">
         <v>5000</v>
       </c>
-      <c r="AI50" s="9">
+      <c r="AI50" s="10">
         <v>1000000</v>
       </c>
-      <c r="AJ50" s="9"/>
+      <c r="AJ50" s="10"/>
     </row>
     <row r="51" spans="1:36">
       <c r="A51" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B51" s="4">
         <v>9</v>
@@ -5553,10 +5583,10 @@
         <v>45</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4">
@@ -5625,10 +5655,10 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4">
@@ -5697,10 +5727,10 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4">
@@ -5769,10 +5799,10 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="4">
@@ -5832,21 +5862,21 @@
     </row>
     <row r="55" spans="1:36">
       <c r="A55" s="4"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="9"/>
+      <c r="I55" s="10"/>
       <c r="J55" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L55" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="L55" s="10" t="s">
         <v>86</v>
       </c>
       <c r="M55" s="4">
@@ -5864,79 +5894,79 @@
       <c r="Q55" s="8">
         <v>0</v>
       </c>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9">
-        <v>1</v>
-      </c>
-      <c r="T55" s="9">
+      <c r="R55" s="10"/>
+      <c r="S55" s="10">
+        <v>1</v>
+      </c>
+      <c r="T55" s="10">
         <v>10</v>
       </c>
-      <c r="U55" s="9">
+      <c r="U55" s="10">
         <v>10</v>
       </c>
-      <c r="V55" s="9">
-        <v>1</v>
-      </c>
-      <c r="W55" s="9">
-        <v>1</v>
-      </c>
-      <c r="X55" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y55" s="9">
+      <c r="V55" s="10">
+        <v>1</v>
+      </c>
+      <c r="W55" s="10">
+        <v>1</v>
+      </c>
+      <c r="X55" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="10">
         <v>10</v>
       </c>
-      <c r="Z55" s="9">
+      <c r="Z55" s="10">
         <v>10</v>
       </c>
-      <c r="AA55" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB55" s="9"/>
-      <c r="AC55" s="9"/>
-      <c r="AD55" s="9">
+      <c r="AA55" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10">
         <v>25</v>
       </c>
-      <c r="AE55" s="9">
+      <c r="AE55" s="10">
         <v>10000000</v>
       </c>
-      <c r="AF55" s="9">
+      <c r="AF55" s="10">
         <v>200</v>
       </c>
-      <c r="AG55" s="9">
+      <c r="AG55" s="10">
         <v>1.4</v>
       </c>
-      <c r="AH55" s="9">
+      <c r="AH55" s="10">
         <v>5000</v>
       </c>
-      <c r="AI55" s="9">
+      <c r="AI55" s="10">
         <v>1000000</v>
       </c>
-      <c r="AJ55" s="9"/>
+      <c r="AJ55" s="10"/>
     </row>
     <row r="56" spans="1:36">
       <c r="A56" s="4"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="9"/>
+      <c r="I56" s="10"/>
       <c r="J56" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="L56" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="M56" s="9">
+        <v>189</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="M56" s="10">
         <v>3</v>
       </c>
-      <c r="N56" s="9">
+      <c r="N56" s="10">
         <v>6</v>
       </c>
       <c r="O56" s="8">
@@ -5948,69 +5978,69 @@
       <c r="Q56" s="8">
         <v>0</v>
       </c>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9">
-        <v>1</v>
-      </c>
-      <c r="T56" s="9">
-        <v>1</v>
-      </c>
-      <c r="U56" s="9">
-        <v>1</v>
-      </c>
-      <c r="V56" s="9">
-        <v>1</v>
-      </c>
-      <c r="W56" s="9">
-        <v>1</v>
-      </c>
-      <c r="X56" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y56" s="9">
+      <c r="R56" s="10"/>
+      <c r="S56" s="10">
+        <v>1</v>
+      </c>
+      <c r="T56" s="10">
+        <v>1</v>
+      </c>
+      <c r="U56" s="10">
+        <v>1</v>
+      </c>
+      <c r="V56" s="10">
+        <v>1</v>
+      </c>
+      <c r="W56" s="10">
+        <v>1</v>
+      </c>
+      <c r="X56" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="10">
         <v>100</v>
       </c>
-      <c r="Z56" s="9">
+      <c r="Z56" s="10">
         <v>500</v>
       </c>
-      <c r="AA56" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB56" s="9">
-        <v>1</v>
-      </c>
-      <c r="AC56" s="9"/>
-      <c r="AD56" s="9"/>
-      <c r="AE56" s="9"/>
-      <c r="AF56" s="9"/>
-      <c r="AG56" s="9"/>
-      <c r="AH56" s="9"/>
-      <c r="AI56" s="9"/>
-      <c r="AJ56" s="9"/>
+      <c r="AA56" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
+      <c r="AG56" s="10"/>
+      <c r="AH56" s="10"/>
+      <c r="AI56" s="10"/>
+      <c r="AJ56" s="10"/>
     </row>
     <row r="57" spans="1:36">
       <c r="A57" s="4"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="9"/>
+      <c r="I57" s="10"/>
       <c r="J57" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="M57" s="9">
+        <v>192</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="M57" s="10">
         <v>4</v>
       </c>
-      <c r="N57" s="9">
+      <c r="N57" s="10">
         <v>6</v>
       </c>
       <c r="O57" s="8">
@@ -6022,45 +6052,162 @@
       <c r="Q57" s="8">
         <v>0</v>
       </c>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9">
-        <v>1</v>
-      </c>
-      <c r="T57" s="9">
-        <v>1</v>
-      </c>
-      <c r="U57" s="9">
-        <v>1</v>
-      </c>
-      <c r="V57" s="9">
-        <v>1</v>
-      </c>
-      <c r="W57" s="9">
-        <v>1</v>
-      </c>
-      <c r="X57" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="9">
+      <c r="R57" s="10"/>
+      <c r="S57" s="10">
+        <v>1</v>
+      </c>
+      <c r="T57" s="10">
+        <v>1</v>
+      </c>
+      <c r="U57" s="10">
+        <v>1</v>
+      </c>
+      <c r="V57" s="10">
+        <v>1</v>
+      </c>
+      <c r="W57" s="10">
+        <v>1</v>
+      </c>
+      <c r="X57" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="10">
         <v>100</v>
       </c>
-      <c r="Z57" s="9">
+      <c r="Z57" s="10">
         <v>500</v>
       </c>
-      <c r="AA57" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB57" s="9">
-        <v>1</v>
-      </c>
-      <c r="AC57" s="9"/>
-      <c r="AD57" s="9"/>
-      <c r="AE57" s="9"/>
-      <c r="AF57" s="9"/>
-      <c r="AG57" s="9"/>
-      <c r="AH57" s="9"/>
-      <c r="AI57" s="9"/>
-      <c r="AJ57" s="9"/>
+      <c r="AA57" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10"/>
+      <c r="AG57" s="10"/>
+      <c r="AH57" s="10"/>
+      <c r="AI57" s="10"/>
+      <c r="AJ57" s="10"/>
+    </row>
+    <row r="58" spans="11:11">
+      <c r="K58" s="11"/>
+    </row>
+    <row r="59" spans="11:11">
+      <c r="K59" s="11"/>
+    </row>
+    <row r="60" spans="11:11">
+      <c r="K60" s="11"/>
+    </row>
+    <row r="61" spans="11:11">
+      <c r="K61" s="11"/>
+    </row>
+    <row r="62" spans="11:11">
+      <c r="K62" s="11"/>
+    </row>
+    <row r="63" spans="11:11">
+      <c r="K63" s="11"/>
+    </row>
+    <row r="64" spans="11:11">
+      <c r="K64" s="11"/>
+    </row>
+    <row r="65" spans="11:11">
+      <c r="K65" s="11"/>
+    </row>
+    <row r="66" spans="11:11">
+      <c r="K66" s="11"/>
+    </row>
+    <row r="67" spans="11:11">
+      <c r="K67" s="11"/>
+    </row>
+    <row r="68" spans="11:11">
+      <c r="K68" s="11"/>
+    </row>
+    <row r="69" spans="11:11">
+      <c r="K69" s="11"/>
+    </row>
+    <row r="70" spans="11:11">
+      <c r="K70" s="11"/>
+    </row>
+    <row r="71" spans="11:11">
+      <c r="K71" s="11"/>
+    </row>
+    <row r="72" spans="11:11">
+      <c r="K72" s="11"/>
+    </row>
+    <row r="73" spans="11:11">
+      <c r="K73" s="11"/>
+    </row>
+    <row r="74" spans="11:11">
+      <c r="K74" s="11"/>
+    </row>
+    <row r="75" spans="11:11">
+      <c r="K75" s="11"/>
+    </row>
+    <row r="76" spans="11:11">
+      <c r="K76" s="11"/>
+    </row>
+    <row r="77" spans="11:11">
+      <c r="K77" s="11"/>
+    </row>
+    <row r="78" spans="11:11">
+      <c r="K78" s="11"/>
+    </row>
+    <row r="79" spans="11:11">
+      <c r="K79" s="11"/>
+    </row>
+    <row r="80" spans="11:11">
+      <c r="K80" s="11"/>
+    </row>
+    <row r="81" spans="11:11">
+      <c r="K81" s="11"/>
+    </row>
+    <row r="82" spans="11:11">
+      <c r="K82" s="11"/>
+    </row>
+    <row r="83" spans="11:11">
+      <c r="K83" s="11"/>
+    </row>
+    <row r="84" spans="11:11">
+      <c r="K84" s="11"/>
+    </row>
+    <row r="85" spans="11:11">
+      <c r="K85" s="11"/>
+    </row>
+    <row r="86" spans="11:11">
+      <c r="K86" s="11"/>
+    </row>
+    <row r="87" spans="11:11">
+      <c r="K87" s="11"/>
+    </row>
+    <row r="88" spans="11:11">
+      <c r="K88" s="11"/>
+    </row>
+    <row r="89" spans="11:11">
+      <c r="K89" s="11"/>
+    </row>
+    <row r="90" spans="11:11">
+      <c r="K90" s="11"/>
+    </row>
+    <row r="91" spans="11:11">
+      <c r="K91" s="11"/>
+    </row>
+    <row r="92" spans="11:11">
+      <c r="K92" s="11"/>
+    </row>
+    <row r="93" spans="11:11">
+      <c r="K93" s="11"/>
+    </row>
+    <row r="94" spans="11:11">
+      <c r="K94" s="11"/>
+    </row>
+    <row r="95" spans="11:11">
+      <c r="K95" s="11"/>
+    </row>
+    <row r="96" spans="11:11">
+      <c r="K96" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6094,10 +6241,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28" spans="1:37">
       <c r="A1" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -6205,10 +6352,10 @@
     </row>
     <row r="2" ht="28" spans="1:37">
       <c r="A2" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>36</v>
@@ -6238,7 +6385,7 @@
         <v>44</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>45</v>
@@ -6318,126 +6465,126 @@
     </row>
     <row r="3" ht="15.5" spans="1:37">
       <c r="A3" s="5" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:37">
       <c r="A4" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>36</v>
@@ -6467,7 +6614,7 @@
         <v>36</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>45</v>
